--- a/loc_and_data_diff.xlsx
+++ b/loc_and_data_diff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF35"/>
+  <dimension ref="A1:AF75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,29 +598,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2561108085456274944</t>
+          <t>2419220490777306869</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2561108085456274944</t>
+          <t>2419220490777306869</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>41.3050268, 2.0674944</t>
+          <t>41.359591800000004, 2.1286251000000003</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{"t6": 2, "e6": 1.0}</t>
+          <t>{"t5": 539, "e5": 538.0}</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>41.3050268</v>
+        <v>41.3595918</v>
       </c>
       <c r="F2" t="n">
-        <v>2.0674944</v>
+        <v>2.1286251</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
@@ -632,10 +632,10 @@
         <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>8191</v>
+        <v>539</v>
       </c>
       <c r="L2" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>197</v>
@@ -660,12 +660,12 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2560894780200486400</t>
+          <t>2419008285049923317</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2560894780200486400</t>
+          <t>2419008285049923317</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -678,13 +678,13 @@
         <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y2" t="n">
-        <v>8191</v>
+        <v>538</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD2" t="n">
         <v>197</v>
@@ -708,29 +708,29 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2564556153920979200</t>
+          <t>2419079770485597957</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2564556153920979200</t>
+          <t>2419079770485597957</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>41.304933399999996, 2.0672167</t>
+          <t>41.3594764, 2.1284671</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{"t6": 2, "e6": 1.0}</t>
+          <t>{"t5": 539, "e5": 538.0}</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>41.3049334</v>
+        <v>41.3594764</v>
       </c>
       <c r="F3" t="n">
-        <v>2.0672167</v>
+        <v>2.1284671</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
@@ -742,10 +742,10 @@
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>8191</v>
+        <v>539</v>
       </c>
       <c r="L3" t="n">
         <v>2</v>
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>197</v>
@@ -770,12 +770,12 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2564624323641901312</t>
+          <t>2419149039734925061</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2564624323641901312</t>
+          <t>2419149039734925061</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -788,13 +788,13 @@
         <v>2</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y3" t="n">
-        <v>8191</v>
+        <v>538</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD3" t="n">
         <v>197</v>
@@ -818,29 +818,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2571381922106210048</t>
+          <t>2435264581646461181</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2571381922106210048</t>
+          <t>2435264581646461181</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>41.3048473, 2.0669608</t>
+          <t>41.3592207, 2.1281381</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{"t6": 2, "e6": 1.0}</t>
+          <t>{"t5": 482, "e5": 481.0}</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>41.3048473</v>
+        <v>41.3592207</v>
       </c>
       <c r="F4" t="n">
-        <v>2.0669608</v>
+        <v>2.1281381</v>
       </c>
       <c r="G4" t="n">
         <v>10</v>
@@ -852,10 +852,10 @@
         <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>8191</v>
+        <v>482</v>
       </c>
       <c r="L4" t="n">
         <v>2</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>197</v>
@@ -880,12 +880,12 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2571450091827132160</t>
+          <t>2435052375902300413</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2571450091827132160</t>
+          <t>2435052375902300413</t>
         </is>
       </c>
       <c r="U4" t="n">
@@ -898,13 +898,13 @@
         <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y4" t="n">
-        <v>8191</v>
+        <v>481</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD4" t="n">
         <v>197</v>
@@ -928,29 +928,29 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2577644740338018304</t>
+          <t>2435123844325879293</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2577644740338018304</t>
+          <t>2435123844325879293</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>41.3047781, 2.0667552</t>
+          <t>41.3590899, 2.1279612</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{"t6": 2, "e6": 1.0}</t>
+          <t>{"t5": 482, "e5": 481.0}</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>41.3047781</v>
+        <v>41.3590899</v>
       </c>
       <c r="F5" t="n">
-        <v>2.0667552</v>
+        <v>2.1279612</v>
       </c>
       <c r="G5" t="n">
         <v>10</v>
@@ -962,10 +962,10 @@
         <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>8191</v>
+        <v>482</v>
       </c>
       <c r="L5" t="n">
         <v>2</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>197</v>
@@ -990,12 +990,12 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2577712910075717632</t>
+          <t>2435193113575206397</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2577712910075717632</t>
+          <t>2435193113575206397</t>
         </is>
       </c>
       <c r="U5" t="n">
@@ -1008,13 +1008,13 @@
         <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y5" t="n">
-        <v>8191</v>
+        <v>481</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD5" t="n">
         <v>197</v>
@@ -1038,32 +1038,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2580248383889366272</t>
+          <t>2446805055691599104</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2580248383889366272</t>
+          <t>2446805055691599104</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>41.3047515, 2.0666767999999998</t>
+          <t>41.3588231, 2.1276061</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{"t6": 2, "e6": 1.0}</t>
+          <t>{"t5": 441, "e5": 440.0}</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>41.3047515</v>
+        <v>41.3588231</v>
       </c>
       <c r="F6" t="n">
-        <v>2.0666768</v>
+        <v>2.1276061</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
@@ -1072,10 +1072,10 @@
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>8191</v>
+        <v>441</v>
       </c>
       <c r="L6" t="n">
         <v>2</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>197</v>
@@ -1100,16 +1100,16 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2580035078633577728</t>
+          <t>2446592849930661120</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2580035078633577728</t>
+          <t>2446592849930661120</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="V6" t="n">
         <v>2</v>
@@ -1118,13 +1118,13 @@
         <v>2</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y6" t="n">
-        <v>8191</v>
+        <v>440</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD6" t="n">
         <v>197</v>
@@ -1148,32 +1148,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2583414977360582658</t>
+          <t>2471574853623262464</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2583414977360582658</t>
+          <t>2471574853623262464</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>41.3047117, 2.0665592</t>
+          <t>41.3582674, 2.1268657</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{"t6": 2, "e6": 1.0}</t>
+          <t>{"t5": 353, "e5": 352.0}</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>41.3047117</v>
+        <v>41.3582674</v>
       </c>
       <c r="F7" t="n">
-        <v>2.0665592</v>
+        <v>2.1268657</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
@@ -1182,10 +1182,10 @@
         <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>8191</v>
+        <v>353</v>
       </c>
       <c r="L7" t="n">
         <v>2</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>197</v>
@@ -1210,16 +1210,16 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2583483147098281986</t>
+          <t>2471362647879101696</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>2583483147098281986</t>
+          <t>2471362647879101696</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="V7" t="n">
         <v>2</v>
@@ -1228,13 +1228,13 @@
         <v>2</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y7" t="n">
-        <v>8191</v>
+        <v>352</v>
       </c>
       <c r="Z7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD7" t="n">
         <v>197</v>
@@ -1258,32 +1258,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2585174195965024258</t>
+          <t>2483467171389287682</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2585174195965024258</t>
+          <t>2483467171389287682</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>41.3046935, 2.0665055</t>
+          <t>41.357981800000005, 2.1265118</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{"t6": 2, "e6": 1.0}</t>
+          <t>{"t5": 310, "e5": 309.0}</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>41.3046935</v>
+        <v>41.3579818</v>
       </c>
       <c r="F8" t="n">
-        <v>2.0665055</v>
+        <v>2.1265118</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H8" t="n">
         <v>2</v>
@@ -1292,10 +1292,10 @@
         <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>8191</v>
+        <v>310</v>
       </c>
       <c r="L8" t="n">
         <v>2</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>197</v>
@@ -1320,16 +1320,16 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2585242365685946370</t>
+          <t>2483536440621837570</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2585242365685946370</t>
+          <t>2483536440621837570</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="V8" t="n">
         <v>2</v>
@@ -1338,13 +1338,13 @@
         <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y8" t="n">
-        <v>8191</v>
+        <v>309</v>
       </c>
       <c r="Z8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD8" t="n">
         <v>197</v>
@@ -1368,29 +1368,29 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3670487830093670653</t>
+          <t>2489448514661166336</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3670487830093670653</t>
+          <t>2489448514661166336</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>41.3516323, 2.0585851</t>
+          <t>41.35784, 2.1263282</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{"t5": 1244, "e5": 1245.0}</t>
+          <t>{"t5": 289, "e5": 288.0}</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>41.3516323</v>
+        <v>41.35784</v>
       </c>
       <c r="F9" t="n">
-        <v>2.0585851</v>
+        <v>2.1263282</v>
       </c>
       <c r="G9" t="n">
         <v>16</v>
@@ -1405,7 +1405,7 @@
         <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>1244</v>
+        <v>289</v>
       </c>
       <c r="L9" t="n">
         <v>2</v>
@@ -1430,12 +1430,12 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>3670338296529070333</t>
+          <t>2489517783876939008</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>3670338296529070333</t>
+          <t>2489517783876939008</t>
         </is>
       </c>
       <c r="U9" t="n">
@@ -1451,7 +1451,7 @@
         <v>2</v>
       </c>
       <c r="Y9" t="n">
-        <v>1245</v>
+        <v>288</v>
       </c>
       <c r="Z9" t="n">
         <v>2</v>
@@ -1478,32 +1478,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2306955972866766589</t>
+          <t>2508166600612423931</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2306955972866766589</t>
+          <t>2508166600612423931</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>41.4197738, 2.002474</t>
+          <t>41.3574408, 2.1257881</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t5": 223, "e5": 222.0}</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>41.4197738</v>
+        <v>41.3574408</v>
       </c>
       <c r="F10" t="n">
-        <v>2.002474</v>
+        <v>2.1257881</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
@@ -1512,10 +1512,10 @@
         <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>8191</v>
+        <v>223</v>
       </c>
       <c r="L10" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>197</v>
@@ -1540,16 +1540,16 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2306947176689858301</t>
+          <t>2507954394885040379</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>2306947176689858301</t>
+          <t>2507954394885040379</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="V10" t="n">
         <v>2</v>
@@ -1558,13 +1558,13 @@
         <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y10" t="n">
-        <v>8191</v>
+        <v>222</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD10" t="n">
         <v>197</v>
@@ -1588,32 +1588,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2309700353738700539</t>
+          <t>2562957464047746048</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2309700353738700539</t>
+          <t>2562957464047746048</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>41.419721800000005, 2.0022295999999997</t>
+          <t>41.3050001, 2.0674151999999997</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>41.4197218</v>
+        <v>41.3050001</v>
       </c>
       <c r="F11" t="n">
-        <v>2.0022296</v>
+        <v>2.0674152</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
@@ -1650,16 +1650,16 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2309691557645678331</t>
+          <t>2562956364569672704</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>2309691557645678331</t>
+          <t>2562956364569672704</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V11" t="n">
         <v>2</v>
@@ -1674,7 +1674,7 @@
         <v>8191</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -1698,32 +1698,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2315752065736929771</t>
+          <t>2566405532478897152</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2315752065736929771</t>
+          <t>2566405532478897152</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>41.4196966, 2.0019852</t>
+          <t>41.3049148, 2.0671614000000003</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>41.4196966</v>
+        <v>41.3049148</v>
       </c>
       <c r="F12" t="n">
-        <v>2.0019852</v>
+        <v>2.0671614</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>2</v>
@@ -1760,16 +1760,16 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2315743269627130347</t>
+          <t>2566404432967269376</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>2315743269627130347</t>
+          <t>2566404432967269376</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V12" t="n">
         <v>2</v>
@@ -1784,7 +1784,7 @@
         <v>8191</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -1808,32 +1808,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2318989027986926848</t>
+          <t>2569853600943601408</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2318989027986926848</t>
+          <t>2569853600943601408</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>41.4197156, 2.0019229999999997</t>
+          <t>41.304873199999996, 2.0670378</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>41.4197156</v>
+        <v>41.3048732</v>
       </c>
       <c r="F13" t="n">
-        <v>2.001923</v>
+        <v>2.0670378</v>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
         <v>2</v>
@@ -1870,16 +1870,16 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>2318980231877127424</t>
+          <t>2569852501448750848</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>2318980231877127424</t>
+          <t>2569852501448750848</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V13" t="n">
         <v>2</v>
@@ -1894,7 +1894,7 @@
         <v>8191</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -1918,32 +1918,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2326433821202864658</t>
+          <t>2572738719471662848</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2326433821202864658</t>
+          <t>2572738719471662848</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>41.4195739, 2.0013091</t>
+          <t>41.3048342, 2.0669217</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>41.4195739</v>
+        <v>41.3048342</v>
       </c>
       <c r="F14" t="n">
-        <v>2.0013091</v>
+        <v>2.0669217</v>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
         <v>2</v>
@@ -1980,16 +1980,16 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2326425025143396882</t>
+          <t>2572737619943257856</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>2326425025143396882</t>
+          <t>2572737619943257856</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V14" t="n">
         <v>2</v>
@@ -2004,7 +2004,7 @@
         <v>8191</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
@@ -2028,32 +2028,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3057295692926067709</t>
+          <t>2307658560714076668</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3057295692926067709</t>
+          <t>2307658560714076668</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>41.4026262, 2.115474</t>
+          <t>41.419767799999995, 2.0024457</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{"t5": 1303, "e5": 1302.0}</t>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>41.4026262</v>
+        <v>41.4197678</v>
       </c>
       <c r="F15" t="n">
-        <v>2.115474</v>
+        <v>2.0024457</v>
       </c>
       <c r="G15" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
         <v>2</v>
@@ -2062,10 +2062,10 @@
         <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1303</v>
+        <v>8191</v>
       </c>
       <c r="L15" t="n">
         <v>2</v>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P15" t="n">
         <v>197</v>
@@ -2090,16 +2090,16 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>3057146159411799037</t>
+          <t>2307791601654591996</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>3057146159411799037</t>
+          <t>2307791601654591996</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>2</v>
@@ -2108,13 +2108,13 @@
         <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>1302</v>
+        <v>8191</v>
       </c>
       <c r="Z15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD15" t="n">
         <v>197</v>
@@ -2138,32 +2138,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3062573348689062144</t>
+          <t>2310191835435266555</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3062573348689062144</t>
+          <t>2310191835435266555</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>41.4023403, 2.1151686</t>
+          <t>41.4197202, 2.0022217</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{"t5": 1284, "e5": 1283.0}</t>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>41.4023403</v>
+        <v>41.4197202</v>
       </c>
       <c r="F16" t="n">
-        <v>2.1151686</v>
+        <v>2.0022217</v>
       </c>
       <c r="G16" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
         <v>2</v>
@@ -2172,10 +2172,10 @@
         <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1284</v>
+        <v>8191</v>
       </c>
       <c r="L16" t="n">
         <v>2</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P16" t="n">
         <v>197</v>
@@ -2200,16 +2200,16 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>3062705290084395264</t>
+          <t>2310324876342227451</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>3062705290084395264</t>
+          <t>2310324876342227451</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>2</v>
@@ -2218,13 +2218,13 @@
         <v>2</v>
       </c>
       <c r="X16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1283</v>
+        <v>8191</v>
       </c>
       <c r="Z16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD16" t="n">
         <v>197</v>
@@ -2248,32 +2248,32 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3080447009711237373</t>
+          <t>2313147322673951223</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3080447009711237373</t>
+          <t>2313147322673951223</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>41.401909700000004, 2.1147004000000003</t>
+          <t>41.4196983, 2.0021067</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{"t5": 1221, "e5": 1220.0}</t>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>41.4019097</v>
+        <v>41.4196983</v>
       </c>
       <c r="F17" t="n">
-        <v>2.1147004</v>
+        <v>2.0021067</v>
       </c>
       <c r="G17" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
         <v>2</v>
@@ -2282,10 +2282,10 @@
         <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1221</v>
+        <v>8191</v>
       </c>
       <c r="L17" t="n">
         <v>2</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P17" t="n">
         <v>197</v>
@@ -2310,16 +2310,16 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>3080227107402459389</t>
+          <t>2312998888620978679</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>3080227107402459389</t>
+          <t>2312998888620978679</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>2</v>
@@ -2328,13 +2328,13 @@
         <v>2</v>
       </c>
       <c r="X17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1220</v>
+        <v>8191</v>
       </c>
       <c r="Z17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD17" t="n">
         <v>197</v>
@@ -2358,32 +2358,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3091987483772102657</t>
+          <t>2315821334969478121</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3091987483772102657</t>
+          <t>2315821334969478121</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>41.4017627, 2.1145509</t>
+          <t>41.4196944, 2.0020003</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{"t5": 1180, "e5": 1179.0}</t>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>41.4017627</v>
+        <v>41.4196944</v>
       </c>
       <c r="F18" t="n">
-        <v>2.1145509</v>
+        <v>2.0020003</v>
       </c>
       <c r="G18" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
         <v>2</v>
@@ -2392,10 +2392,10 @@
         <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1180</v>
+        <v>8191</v>
       </c>
       <c r="L18" t="n">
         <v>2</v>
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P18" t="n">
         <v>197</v>
@@ -2420,16 +2420,16 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>3091767581429770241</t>
+          <t>2315954375876439017</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>3091767581429770241</t>
+          <t>2315954375876439017</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>2</v>
@@ -2438,13 +2438,13 @@
         <v>2</v>
       </c>
       <c r="X18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>1179</v>
+        <v>8191</v>
       </c>
       <c r="Z18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD18" t="n">
         <v>197</v>
@@ -2468,32 +2468,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3103035376590170112</t>
+          <t>2318776822209212928</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3103035376590170112</t>
+          <t>2318776822209212928</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>41.401320299999995, 2.1141134</t>
+          <t>41.4197097, 2.0019367999999997</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{"t5": 1140, "e5": 1139.0}</t>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>41.40132029999999</v>
+        <v>41.4197097</v>
       </c>
       <c r="F19" t="n">
-        <v>2.1141134</v>
+        <v>2.0019368</v>
       </c>
       <c r="G19" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
         <v>2</v>
@@ -2502,10 +2502,10 @@
         <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1140</v>
+        <v>8191</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P19" t="n">
         <v>197</v>
@@ -2530,16 +2530,16 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>3103096949241325568</t>
+          <t>2318628388156240384</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>3103096949241325568</t>
+          <t>2318628388156240384</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>2</v>
@@ -2548,13 +2548,13 @@
         <v>2</v>
       </c>
       <c r="X19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1139</v>
+        <v>8191</v>
       </c>
       <c r="Z19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD19" t="n">
         <v>197</v>
@@ -2578,32 +2578,32 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3114998063119247362</t>
+          <t>2308542516451888153</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3114998063119247362</t>
+          <t>2308542516451888153</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>41.401012599999994, 2.1138663</t>
+          <t>41.420068, 2.0017413</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{"t5": 1098, "e5": 1097.0}</t>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>41.40101259999999</v>
+        <v>41.420068</v>
       </c>
       <c r="F20" t="n">
-        <v>2.1138663</v>
+        <v>2.0017413</v>
       </c>
       <c r="G20" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
         <v>2</v>
@@ -2612,10 +2612,10 @@
         <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1098</v>
+        <v>8191</v>
       </c>
       <c r="L20" t="n">
         <v>2</v>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P20" t="n">
         <v>197</v>
@@ -2640,16 +2640,16 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>3115059635837511682</t>
+          <t>2308534819870493721</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>3115059635837511682</t>
+          <t>2308534819870493721</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>2</v>
@@ -2658,13 +2658,13 @@
         <v>2</v>
       </c>
       <c r="X20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1097</v>
+        <v>8191</v>
       </c>
       <c r="Z20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
         <v>0</v>
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD20" t="n">
         <v>197</v>
@@ -2688,32 +2688,32 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3126257062169848060</t>
+          <t>2308612936718897929</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3126257062169848060</t>
+          <t>2308612936718897929</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>41.4006715, 2.1136589000000003</t>
+          <t>41.420098599999996, 2.0017542</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{"t5": 1058, "e5": 1057.0}</t>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>41.4006715</v>
+        <v>41.4200986</v>
       </c>
       <c r="F21" t="n">
-        <v>2.1136589</v>
+        <v>2.0017542</v>
       </c>
       <c r="G21" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
         <v>2</v>
@@ -2722,10 +2722,10 @@
         <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1058</v>
+        <v>8191</v>
       </c>
       <c r="L21" t="n">
         <v>2</v>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P21" t="n">
         <v>197</v>
@@ -2750,16 +2750,16 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>3126318634821003516</t>
+          <t>2308605240171057929</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>3126318634821003516</t>
+          <t>2308605240171057929</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>2</v>
@@ -2768,13 +2768,13 @@
         <v>2</v>
       </c>
       <c r="X21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>1057</v>
+        <v>8191</v>
       </c>
       <c r="Z21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD21" t="n">
         <v>197</v>
@@ -2798,32 +2798,32 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3137797536213936129</t>
+          <t>2310653630316827643</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3137797536213936129</t>
+          <t>2310653630316827643</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>41.4003096, 2.1135101</t>
+          <t>41.4201726, 2.0017738</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{"t5": 1017, "e5": 1016.0}</t>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>41.4003096</v>
+        <v>41.4201726</v>
       </c>
       <c r="F22" t="n">
-        <v>2.1135101</v>
+        <v>2.0017738</v>
       </c>
       <c r="G22" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
         <v>2</v>
@@ -2832,10 +2832,10 @@
         <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1017</v>
+        <v>8191</v>
       </c>
       <c r="L22" t="n">
         <v>2</v>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P22" t="n">
         <v>197</v>
@@ -2860,16 +2860,16 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>3137859108831537153</t>
+          <t>2310645933752210427</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>3137859108831537153</t>
+          <t>2310645933752210427</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>2</v>
@@ -2878,13 +2878,13 @@
         <v>2</v>
       </c>
       <c r="X22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1016</v>
+        <v>8191</v>
       </c>
       <c r="Z22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD22" t="n">
         <v>197</v>
@@ -2908,32 +2908,32 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3149619485219007997</t>
+          <t>2315297967432551939</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3149619485219007997</t>
+          <t>2315297967432551939</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>41.3999356, 2.1134076</t>
+          <t>41.420308, 2.0017753</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{"t5": 975, "e5": 974.0}</t>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>41.3999356</v>
+        <v>41.420308</v>
       </c>
       <c r="F23" t="n">
-        <v>2.1134076</v>
+        <v>2.0017753</v>
       </c>
       <c r="G23" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H23" t="n">
         <v>2</v>
@@ -2942,10 +2942,10 @@
         <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>975</v>
+        <v>8191</v>
       </c>
       <c r="L23" t="n">
         <v>2</v>
@@ -2957,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P23" t="n">
         <v>197</v>
@@ -2970,16 +2970,16 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>3149681057870163453</t>
+          <t>2315290270851157507</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>3149681057870163453</t>
+          <t>2315290270851157507</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>2</v>
@@ -2988,13 +2988,13 @@
         <v>2</v>
       </c>
       <c r="X23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>974</v>
+        <v>8191</v>
       </c>
       <c r="Z23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD23" t="n">
         <v>197</v>
@@ -3018,32 +3018,32 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3168337571268832764</t>
+          <t>2316846079787682049</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3168337571268832764</t>
+          <t>2316846079787682049</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>41.399536600000005, 2.1133379</t>
+          <t>41.420354100000004, 2.0017703</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>{"t5": 908, "e5": 907.0}</t>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>41.3995366</v>
+        <v>41.4203541</v>
       </c>
       <c r="F24" t="n">
-        <v>2.1133379</v>
+        <v>2.0017703</v>
       </c>
       <c r="G24" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H24" t="n">
         <v>2</v>
@@ -3052,10 +3052,10 @@
         <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>908</v>
+        <v>8191</v>
       </c>
       <c r="L24" t="n">
         <v>2</v>
@@ -3067,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P24" t="n">
         <v>197</v>
@@ -3080,16 +3080,16 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>3168539881425120764</t>
+          <t>2317049489455597825</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>3168539881425120764</t>
+          <t>2317049489455597825</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>2</v>
@@ -3098,13 +3098,13 @@
         <v>2</v>
       </c>
       <c r="X24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>907</v>
+        <v>8191</v>
       </c>
       <c r="Z24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA24" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD24" t="n">
         <v>197</v>
@@ -3128,32 +3128,32 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3174881864376692219</t>
+          <t>2317479398485281024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3174881864376692219</t>
+          <t>2317479398485281024</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>41.3991366, 2.1132820999999997</t>
+          <t>41.4203769, 2.0017678</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{"t5": 885, "e5": 884.0}</t>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>41.3991366</v>
+        <v>41.4203769</v>
       </c>
       <c r="F25" t="n">
-        <v>2.1132821</v>
+        <v>2.0017678</v>
       </c>
       <c r="G25" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
         <v>2</v>
@@ -3162,10 +3162,10 @@
         <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>885</v>
+        <v>8191</v>
       </c>
       <c r="L25" t="n">
         <v>2</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P25" t="n">
         <v>197</v>
@@ -3190,16 +3190,16 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>3174802699539492347</t>
+          <t>2317401333176486144</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>3174802699539492347</t>
+          <t>2317401333176486144</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>2</v>
@@ -3208,13 +3208,13 @@
         <v>2</v>
       </c>
       <c r="X25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>884</v>
+        <v>8191</v>
       </c>
       <c r="Z25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD25" t="n">
         <v>197</v>
@@ -3238,32 +3238,32 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3283176063114464256</t>
+          <t>2369908510960926970</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3283176063114464256</t>
+          <t>2369908510960926970</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>41.2446556, 1.7767526</t>
+          <t>41.4203265, 2.0017733</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{"t5": 1924, "e5": 1033.0}</t>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>41.2446556</v>
+        <v>41.4203265</v>
       </c>
       <c r="F26" t="n">
-        <v>1.7767526</v>
+        <v>2.0017733</v>
       </c>
       <c r="G26" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="H26" t="n">
         <v>2</v>
@@ -3272,10 +3272,10 @@
         <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1924</v>
+        <v>8191</v>
       </c>
       <c r="L26" t="n">
         <v>2</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P26" t="n">
         <v>197</v>
@@ -3300,16 +3300,16 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>3283167267021442048</t>
+          <t>2369971183123710202</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>3283167267021442048</t>
+          <t>2369971183123710202</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>2</v>
@@ -3318,13 +3318,13 @@
         <v>2</v>
       </c>
       <c r="X26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1033</v>
+        <v>8191</v>
       </c>
       <c r="Z26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="AC26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD26" t="n">
         <v>197</v>
@@ -3348,32 +3348,32 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2314819679875524353</t>
+          <t>2370260354681815290</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2314819679875524353</t>
+          <t>2370260354681815290</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>41.298935099999994, 1.9975910000000001</t>
+          <t>41.4203199, 2.0017739999999997</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>{"t1": 6, "e1": 10.0}</t>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>41.29893509999999</v>
+        <v>41.4203199</v>
       </c>
       <c r="F27" t="n">
-        <v>1.997591</v>
+        <v>2.001774</v>
       </c>
       <c r="G27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H27" t="n">
         <v>2</v>
@@ -3410,16 +3410,16 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>2314600877061596929</t>
+          <t>2370041551867887866</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>2314600877061596929</t>
+          <t>2370041551867887866</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>2</v>
@@ -3434,7 +3434,7 @@
         <v>8191</v>
       </c>
       <c r="Z27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
@@ -3458,32 +3458,32 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2322771347966551815</t>
+          <t>2370330723425992706</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2322771347966551815</t>
+          <t>2370330723425992706</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>41.2991756, 1.9977586999999999</t>
+          <t>41.4203136, 2.0017747</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{"t1": 6, "e1": 10.0}</t>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>41.2991756</v>
+        <v>41.4203136</v>
       </c>
       <c r="F28" t="n">
-        <v>1.9977587</v>
+        <v>2.0017747</v>
       </c>
       <c r="G28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H28" t="n">
         <v>2</v>
@@ -3520,16 +3520,16 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>2322834020129335047</t>
+          <t>2370393395588775938</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>2322834020129335047</t>
+          <t>2370393395588775938</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>2</v>
@@ -3544,7 +3544,7 @@
         <v>8191</v>
       </c>
       <c r="Z28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
@@ -3568,32 +3568,32 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2325093516524414727</t>
+          <t>2370401092170171394</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2325093516524414727</t>
+          <t>2370401092170171394</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>41.2992397, 1.9978014000000002</t>
+          <t>41.4203047, 2.0017757</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>{"t1": 6, "e1": 10.0}</t>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>41.2992397</v>
+        <v>41.4203047</v>
       </c>
       <c r="F29" t="n">
-        <v>1.9978014</v>
+        <v>2.0017757</v>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H29" t="n">
         <v>2</v>
@@ -3630,16 +3630,16 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>2325156188687197959</t>
+          <t>2370463764332954626</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>2325156188687197959</t>
+          <t>2370463764332954626</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>2</v>
@@ -3654,7 +3654,7 @@
         <v>8191</v>
       </c>
       <c r="Z29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
         <v>0</v>
@@ -3678,32 +3678,32 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2348033727126333184</t>
+          <t>2371315885827704057</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2348033727126333184</t>
+          <t>2371315885827704057</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>41.2998006, 1.9984122</t>
+          <t>41.4202769, 2.0017782</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{"t1": 6, "e1": 10.0}</t>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>41.2998006</v>
+        <v>41.4202769</v>
       </c>
       <c r="F30" t="n">
-        <v>1.9984122</v>
+        <v>2.0017782</v>
       </c>
       <c r="G30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H30" t="n">
         <v>2</v>
@@ -3740,16 +3740,16 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>2347814924312405760</t>
+          <t>2371378558007264505</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>2347814924312405760</t>
+          <t>2371378558007264505</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>2</v>
@@ -3764,7 +3764,7 @@
         <v>8191</v>
       </c>
       <c r="Z30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA30" t="n">
         <v>0</v>
@@ -3788,32 +3788,32 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2350074420707485693</t>
+          <t>2372230679518790907</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2350074420707485693</t>
+          <t>2372230679518790907</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>41.299854100000005, 1.9984732</t>
+          <t>41.4202465, 2.0017782</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>{"t1": 6, "e1": 10.0}</t>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>41.2998541</v>
+        <v>41.4202465</v>
       </c>
       <c r="F31" t="n">
-        <v>1.9984732</v>
+        <v>2.0017782</v>
       </c>
       <c r="G31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H31" t="n">
         <v>2</v>
@@ -3850,16 +3850,16 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>2350137092870268925</t>
+          <t>2372011876704863483</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>2350137092870268925</t>
+          <t>2372011876704863483</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>2</v>
@@ -3874,7 +3874,7 @@
         <v>8191</v>
       </c>
       <c r="Z31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
@@ -3898,32 +3898,32 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2354366914102323197</t>
+          <t>2372582523239680508</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2354366914102323197</t>
+          <t>2372582523239680508</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>41.2999596, 1.9985942</t>
+          <t>41.4202247, 2.0017782</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{"t1": 6, "e1": 10.0}</t>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>41.2999596</v>
+        <v>41.4202247</v>
       </c>
       <c r="F32" t="n">
-        <v>1.9985942</v>
+        <v>2.0017782</v>
       </c>
       <c r="G32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H32" t="n">
         <v>2</v>
@@ -3960,16 +3960,16 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>2354429586265106429</t>
+          <t>2372645195402463740</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>2354429586265106429</t>
+          <t>2372645195402463740</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>2</v>
@@ -3984,7 +3984,7 @@
         <v>8191</v>
       </c>
       <c r="Z32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA32" t="n">
         <v>0</v>
@@ -4008,32 +4008,32 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2360911207327620335</t>
+          <t>2374060266867412727</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2360911207327620335</t>
+          <t>2374060266867412727</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>41.3000595, 1.9987224</t>
+          <t>41.4201692, 2.001773</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{"t1": 6, "e1": 10.0}</t>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>41.3000595</v>
+        <v>41.4201692</v>
       </c>
       <c r="F33" t="n">
-        <v>1.9987224</v>
+        <v>2.001773</v>
       </c>
       <c r="G33" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H33" t="n">
         <v>2</v>
@@ -4070,16 +4070,16 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>2360973879507180783</t>
+          <t>2374122939030195959</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>2360973879507180783</t>
+          <t>2374122939030195959</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>2</v>
@@ -4094,7 +4094,7 @@
         <v>8191</v>
       </c>
       <c r="Z33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA33" t="n">
         <v>0</v>
@@ -4118,32 +4118,32 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2362388950955348987</t>
+          <t>2375819485471854329</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2362388950955348987</t>
+          <t>2375819485471854329</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>41.300099700000004, 1.9988245999999998</t>
+          <t>41.420113300000004, 2.00176</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>{"t1": 6, "e1": 10.0}</t>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>41.3000997</v>
+        <v>41.4201133</v>
       </c>
       <c r="F34" t="n">
-        <v>1.9988246</v>
+        <v>2.00176</v>
       </c>
       <c r="G34" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H34" t="n">
         <v>2</v>
@@ -4180,16 +4180,16 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>2362170148124644347</t>
+          <t>2375882157634637561</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>2362170148124644347</t>
+          <t>2375882157634637561</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>2</v>
@@ -4204,7 +4204,7 @@
         <v>8191</v>
       </c>
       <c r="Z34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA34" t="n">
         <v>0</v>
@@ -4228,110 +4228,4510 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2364429644521820939</t>
+          <t>2378493497750605316</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2364429644521820939</t>
+          <t>2378493497750605316</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>41.3001298, 1.9989012</t>
+          <t>41.4200199, 2.001721</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>41.4200199</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2.001721</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>8191</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>3</v>
+      </c>
+      <c r="P35" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>2378556169913388548</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>2378556169913388548</t>
+        </is>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2</v>
+      </c>
+      <c r="W35" t="n">
+        <v>2</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>8191</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2380815666308468507</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2380815666308468507</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>41.4199902, 2.0017084</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>41.4199902</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.0017084</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>8191</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>3</v>
+      </c>
+      <c r="P36" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>2380878338471251739</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>2380878338471251739</t>
+        </is>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2</v>
+      </c>
+      <c r="W36" t="n">
+        <v>2</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>8191</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2381730459985924871</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2381730459985924871</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>41.419926000000004, 2.0017302</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>41.419926</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2.0017302</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>8191</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>3</v>
+      </c>
+      <c r="P37" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>2381793132148708103</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>2381793132148708103</t>
+        </is>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2</v>
+      </c>
+      <c r="W37" t="n">
+        <v>2</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>8191</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2382785991164318716</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2382785991164318716</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>41.4198904, 2.0017423</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>41.4198904</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.0017423</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>8191</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>3</v>
+      </c>
+      <c r="P38" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>2382848663327101948</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>2382848663327101948</t>
+        </is>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2</v>
+      </c>
+      <c r="W38" t="n">
+        <v>2</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>8191</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2385741478403003117</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2385741478403003117</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>41.419842, 2.0017460999999996</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>41.419842</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2.0017461</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>8191</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>3</v>
+      </c>
+      <c r="P39" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>2385522675605852909</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>2385522675605852909</t>
+        </is>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2</v>
+      </c>
+      <c r="W39" t="n">
+        <v>2</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>8191</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2385600740914647792</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2385600740914647792</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>41.4198076, 2.001743</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>41.4198076</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.001743</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>8191</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>3</v>
+      </c>
+      <c r="P40" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>2385663413077431024</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>2385663413077431024</t>
+        </is>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2</v>
+      </c>
+      <c r="W40" t="n">
+        <v>2</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>8191</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2386867378307747577</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2386867378307747577</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>41.4197724, 2.0017399</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>41.4197724</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2.0017399</v>
+      </c>
+      <c r="G41" t="n">
+        <v>4</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>8191</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>3</v>
+      </c>
+      <c r="P41" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>2386648575477042937</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>2386648575477042937</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2</v>
+      </c>
+      <c r="W41" t="n">
+        <v>2</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>8191</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2388626596895411717</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2388626596895411717</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>41.419709, 2.0017223</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>41.419709</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2.0017223</v>
+      </c>
+      <c r="G42" t="n">
+        <v>4</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>8191</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>3</v>
+      </c>
+      <c r="P42" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>2388689269074972165</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>2388689269074972165</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2</v>
+      </c>
+      <c r="W42" t="n">
+        <v>2</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>8191</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2389822865563209218</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2389822865563209218</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>41.4196779, 2.001701</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>41.4196779</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2.001701</v>
+      </c>
+      <c r="G43" t="n">
+        <v>4</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>8191</v>
+      </c>
+      <c r="L43" t="n">
+        <v>2</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>3</v>
+      </c>
+      <c r="P43" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>2389885537725992450</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>2389885537725992450</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>2</v>
+      </c>
+      <c r="W43" t="n">
+        <v>2</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>8191</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2394185727702222075</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2394185727702222075</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>41.419602000000005, 2.0015877</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>41.419602</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2.0015877</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>8191</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>3</v>
+      </c>
+      <c r="P44" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>2393966924888294651</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>2393966924888294651</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2</v>
+      </c>
+      <c r="W44" t="n">
+        <v>2</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>8191</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2395381996336465146</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2395381996336465146</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>41.419589900000005, 2.0015316</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>41.41958990000001</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2.0015316</v>
+      </c>
+      <c r="G45" t="n">
+        <v>4</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>8191</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>3</v>
+      </c>
+      <c r="P45" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>2395444668516025594</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>2395444668516025594</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>2</v>
+      </c>
+      <c r="W45" t="n">
+        <v>2</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>8191</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2396015315050841339</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2396015315050841339</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>41.419586800000005, 2.001508</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>41.4195868</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.001508</v>
+      </c>
+      <c r="G46" t="n">
+        <v>4</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>8191</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>3</v>
+      </c>
+      <c r="P46" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>2396077987196847355</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>2396077987196847355</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>2</v>
+      </c>
+      <c r="W46" t="n">
+        <v>2</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>8191</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2396648633748440317</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2396648633748440317</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>41.419584300000004, 2.0014882999999997</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>41.4195843</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2.0014883</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>8191</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>3</v>
+      </c>
+      <c r="P47" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>2396711305911223549</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>2396711305911223549</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2</v>
+      </c>
+      <c r="W47" t="n">
+        <v>2</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>8191</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2397563427422751224</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2397563427422751224</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>41.4195811, 2.0014542</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>41.4195811</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2.0014542</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>8191</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>3</v>
+      </c>
+      <c r="P48" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>2397344624608823800</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>2397344624608823800</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2</v>
+      </c>
+      <c r="W48" t="n">
+        <v>2</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>8191</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2397915271143640825</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2397915271143640825</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>41.419579500000005, 2.0014227</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>41.4195795</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2.0014227</v>
+      </c>
+      <c r="G49" t="n">
+        <v>4</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>8191</v>
+      </c>
+      <c r="L49" t="n">
+        <v>2</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>3</v>
+      </c>
+      <c r="P49" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>2397977943306424057</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>2397977943306424057</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>2</v>
+      </c>
+      <c r="W49" t="n">
+        <v>2</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>8191</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2398830064817951740</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2398830064817951740</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>41.419577000000004, 2.0013720999999998</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>41.419577</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2.0013721</v>
+      </c>
+      <c r="G50" t="n">
+        <v>4</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>8191</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>3</v>
+      </c>
+      <c r="P50" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>2398892736980734972</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>2398892736980734972</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>2</v>
+      </c>
+      <c r="W50" t="n">
+        <v>2</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>8191</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>3836036897856050176</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>3836036897856050176</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>41.4151077, 2.1358946</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>{"t5": 1249, "e5": 1250.0}</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>41.4151077</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2.1358946</v>
+      </c>
+      <c r="G51" t="n">
+        <v>16</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1249</v>
+      </c>
+      <c r="L51" t="n">
+        <v>2</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>3835677349014164480</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>3835677349014164480</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>16</v>
+      </c>
+      <c r="V51" t="n">
+        <v>2</v>
+      </c>
+      <c r="W51" t="n">
+        <v>2</v>
+      </c>
+      <c r="X51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1250</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2930956309269358845</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2930956309269358845</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>41.402717200000005, 2.1155728</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>{"t5": 1316, "e5": 1315.0}</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>41.4027172</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2.1155728</v>
+      </c>
+      <c r="G52" t="n">
+        <v>16</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1316</v>
+      </c>
+      <c r="L52" t="n">
+        <v>2</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>2930805676193130749</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>2930805676193130749</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>16</v>
+      </c>
+      <c r="V52" t="n">
+        <v>2</v>
+      </c>
+      <c r="W52" t="n">
+        <v>2</v>
+      </c>
+      <c r="X52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>1315</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2930885940525181184</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2930885940525181184</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>41.402563300000004, 2.1154064000000004</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>{"t5": 1316, "e5": 1315.0}</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>41.4025633</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2.1154064</v>
+      </c>
+      <c r="G53" t="n">
+        <v>16</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1316</v>
+      </c>
+      <c r="L53" t="n">
+        <v>2</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>2930735307448953088</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>2930735307448953088</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>16</v>
+      </c>
+      <c r="V53" t="n">
+        <v>2</v>
+      </c>
+      <c r="W53" t="n">
+        <v>2</v>
+      </c>
+      <c r="X53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1315</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2954600207346608384</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2954600207346608384</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>41.4019805, 2.1147773</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>{"t5": 1232, "e5": 1231.0}</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>41.4019805</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2.1147773</v>
+      </c>
+      <c r="G54" t="n">
+        <v>16</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1232</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>2954519942997780736</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>2954519942997780736</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>16</v>
+      </c>
+      <c r="V54" t="n">
+        <v>2</v>
+      </c>
+      <c r="W54" t="n">
+        <v>2</v>
+      </c>
+      <c r="X54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>1231</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2966633262634544386</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2966633262634544386</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>41.4018281, 2.1146157999999997</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>{"t5": 1189, "e5": 1188.0}</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>41.4018281</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2.1146158</v>
+      </c>
+      <c r="G55" t="n">
+        <v>16</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1189</v>
+      </c>
+      <c r="L55" t="n">
+        <v>2</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>2966552998252162306</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>2966552998252162306</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>16</v>
+      </c>
+      <c r="V55" t="n">
+        <v>2</v>
+      </c>
+      <c r="W55" t="n">
+        <v>2</v>
+      </c>
+      <c r="X55" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1188</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2972473868349910528</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2972473868349910528</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>41.4015188, 2.1143067</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>{"t5": 1168, "e5": 1167.0}</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>41.4015188</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2.1143067</v>
+      </c>
+      <c r="G56" t="n">
+        <v>16</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1168</v>
+      </c>
+      <c r="L56" t="n">
+        <v>2</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>2972393604017860096</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>2972393604017860096</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>16</v>
+      </c>
+      <c r="V56" t="n">
+        <v>2</v>
+      </c>
+      <c r="W56" t="n">
+        <v>2</v>
+      </c>
+      <c r="X56" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>1167</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2978807055342677249</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2978807055342677249</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>41.4013654, 2.114156</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>{"t5": 1146, "e5": 1145.0}</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>41.4013654</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2.114156</v>
+      </c>
+      <c r="G57" t="n">
+        <v>16</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1146</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>2978726790977072385</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>2978726790977072385</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>16</v>
+      </c>
+      <c r="V57" t="n">
+        <v>2</v>
+      </c>
+      <c r="W57" t="n">
+        <v>2</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1145</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2990769741838200317</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2990769741838200317</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>41.4010388, 2.1138847</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>{"t5": 1103, "e5": 1102.0}</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>41.4010388</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.1138847</v>
+      </c>
+      <c r="G58" t="n">
+        <v>16</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1103</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>2990689477556481533</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>2990689477556481533</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>16</v>
+      </c>
+      <c r="V58" t="n">
+        <v>2</v>
+      </c>
+      <c r="W58" t="n">
+        <v>2</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>1102</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>3015046958577396992</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>3015046958577396992</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>41.4003096, 2.1135102</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>{"t5": 1017, "e5": 1016.0}</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>41.4003096</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2.1135102</v>
+      </c>
+      <c r="G59" t="n">
+        <v>16</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1017</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>3015037062955969792</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>3015037062955969792</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>16</v>
+      </c>
+      <c r="V59" t="n">
+        <v>2</v>
+      </c>
+      <c r="W59" t="n">
+        <v>2</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>1016</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>3039253806555639293</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>3039253806555639293</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>41.3997424, 2.1133691</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>{"t5": 931, "e5": 930.0}</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>41.3997424</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2.1133691</v>
+      </c>
+      <c r="G60" t="n">
+        <v>16</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2</v>
+      </c>
+      <c r="K60" t="n">
+        <v>931</v>
+      </c>
+      <c r="L60" t="n">
+        <v>2</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>3039243910950989309</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>3039243910950989309</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>16</v>
+      </c>
+      <c r="V60" t="n">
+        <v>2</v>
+      </c>
+      <c r="W60" t="n">
+        <v>2</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>930</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>3045516624904891904</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>3045516624904891904</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>41.399542000000004, 2.1133386</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>{"t5": 909, "e5": 908.0}</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>41.399542</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2.1133386</v>
+      </c>
+      <c r="G61" t="n">
+        <v>16</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2</v>
+      </c>
+      <c r="K61" t="n">
+        <v>909</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>3045506729283464704</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>3045506729283464704</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
+        <v>16</v>
+      </c>
+      <c r="V61" t="n">
+        <v>2</v>
+      </c>
+      <c r="W61" t="n">
+        <v>2</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>908</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2763421523518736125</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2763421523518736125</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>41.4033589, 2.0179022</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>{"t5": 214, "e5": 215.0}</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>41.4033589</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2.0179022</v>
+      </c>
+      <c r="G62" t="n">
+        <v>20</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2</v>
+      </c>
+      <c r="K62" t="n">
+        <v>214</v>
+      </c>
+      <c r="L62" t="n">
+        <v>2</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1</v>
+      </c>
+      <c r="P62" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>2762989415449020157</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>2762989415449020157</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>20</v>
+      </c>
+      <c r="V62" t="n">
+        <v>2</v>
+      </c>
+      <c r="W62" t="n">
+        <v>2</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>215</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3244749231268877821</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>3244749231268877821</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>41.279611, 1.5655904999999999</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>{"t6": 1, "e6": 2.0}</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>41.279611</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.5655905</v>
+      </c>
+      <c r="G63" t="n">
+        <v>24</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>8191</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1</v>
+      </c>
+      <c r="P63" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>3244598598142318077</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>3244598598142318077</t>
+        </is>
+      </c>
+      <c r="U63" t="n">
+        <v>24</v>
+      </c>
+      <c r="V63" t="n">
+        <v>2</v>
+      </c>
+      <c r="W63" t="n">
+        <v>2</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>8191</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2313090148119636980</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2313090148119636980</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>41.298829, 1.9975220999999999</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>{"t1": 6, "e1": 10.0}</t>
         </is>
       </c>
-      <c r="E35" t="n">
-        <v>41.3001298</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1.9989012</v>
-      </c>
-      <c r="G35" t="n">
+      <c r="E64" t="n">
+        <v>41.298829</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.9975221</v>
+      </c>
+      <c r="G64" t="n">
         <v>6</v>
       </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>8191</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>3</v>
-      </c>
-      <c r="P35" t="n">
-        <v>197</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1</v>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>2364492316682507019</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>2364492316682507019</t>
-        </is>
-      </c>
-      <c r="U35" t="n">
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>8191</v>
+      </c>
+      <c r="L64" t="n">
+        <v>2</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>3</v>
+      </c>
+      <c r="P64" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>2313014281783766004</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>2313014281783766004</t>
+        </is>
+      </c>
+      <c r="U64" t="n">
         <v>10</v>
       </c>
-      <c r="V35" t="n">
-        <v>2</v>
-      </c>
-      <c r="W35" t="n">
-        <v>2</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>8191</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>197</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF35" t="n">
+      <c r="V64" t="n">
+        <v>2</v>
+      </c>
+      <c r="W64" t="n">
+        <v>2</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>8191</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2318015960194247680</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2318015960194247680</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>41.2989738, 1.9976178</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>{"t1": 6, "e1": 10.0}</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>41.2989738</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.9976178</v>
+      </c>
+      <c r="G65" t="n">
+        <v>6</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>8191</v>
+      </c>
+      <c r="L65" t="n">
+        <v>2</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>3</v>
+      </c>
+      <c r="P65" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>2318221568868641792</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>2318221568868641792</t>
+        </is>
+      </c>
+      <c r="U65" t="n">
+        <v>10</v>
+      </c>
+      <c r="V65" t="n">
+        <v>2</v>
+      </c>
+      <c r="W65" t="n">
+        <v>2</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>8191</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2320267759990105862</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2320267759990105862</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>41.299107, 1.9977131</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>{"t1": 6, "e1": 10.0}</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>41.299107</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.9977131</v>
+      </c>
+      <c r="G66" t="n">
+        <v>6</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>8191</v>
+      </c>
+      <c r="L66" t="n">
+        <v>2</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>3</v>
+      </c>
+      <c r="P66" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>2320332631176144646</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>2320332631176144646</t>
+        </is>
+      </c>
+      <c r="U66" t="n">
+        <v>10</v>
+      </c>
+      <c r="V66" t="n">
+        <v>2</v>
+      </c>
+      <c r="W66" t="n">
+        <v>2</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>8191</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2322589928547968776</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2322589928547968776</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>41.299171099999995, 1.9977558</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>{"t1": 6, "e1": 10.0}</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>41.2991711</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.9977558</v>
+      </c>
+      <c r="G67" t="n">
+        <v>6</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>8191</v>
+      </c>
+      <c r="L67" t="n">
+        <v>2</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>3</v>
+      </c>
+      <c r="P67" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>2322654799734007560</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>2322654799734007560</t>
+        </is>
+      </c>
+      <c r="U67" t="n">
+        <v>10</v>
+      </c>
+      <c r="V67" t="n">
+        <v>2</v>
+      </c>
+      <c r="W67" t="n">
+        <v>2</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>8191</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2329697171726690048</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2329697171726690048</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>41.2992986, 1.9978570999999998</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>{"t1": 6, "e1": 10.0}</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>41.2992986</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.9978571</v>
+      </c>
+      <c r="G68" t="n">
+        <v>6</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>8191</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>3</v>
+      </c>
+      <c r="P68" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>2329762042895951616</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>2329762042895951616</t>
+        </is>
+      </c>
+      <c r="U68" t="n">
+        <v>10</v>
+      </c>
+      <c r="V68" t="n">
+        <v>2</v>
+      </c>
+      <c r="W68" t="n">
+        <v>2</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>8191</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2347218989010151421</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2347218989010151421</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>41.2997775, 1.9983859</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>{"t1": 6, "e1": 10.0}</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>41.2997775</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.9983859</v>
+      </c>
+      <c r="G69" t="n">
+        <v>6</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>8191</v>
+      </c>
+      <c r="L69" t="n">
+        <v>2</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>3</v>
+      </c>
+      <c r="P69" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>2347002385219479549</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>2347002385219479549</t>
+        </is>
+      </c>
+      <c r="U69" t="n">
+        <v>10</v>
+      </c>
+      <c r="V69" t="n">
+        <v>2</v>
+      </c>
+      <c r="W69" t="n">
+        <v>2</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>8191</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2351230007428278272</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2351230007428278272</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>41.299880699999996, 1.9985035</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>{"t1": 6, "e1": 10.0}</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>41.2998807</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.9985035</v>
+      </c>
+      <c r="G70" t="n">
+        <v>6</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>8191</v>
+      </c>
+      <c r="L70" t="n">
+        <v>2</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>3</v>
+      </c>
+      <c r="P70" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>2351294878614317056</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>2351294878614317056</t>
+        </is>
+      </c>
+      <c r="U70" t="n">
+        <v>10</v>
+      </c>
+      <c r="V70" t="n">
+        <v>2</v>
+      </c>
+      <c r="W70" t="n">
+        <v>2</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>8191</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2357915038125155072</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2357915038125155072</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>41.3000364, 1.998683</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>{"t1": 6, "e1": 10.0}</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>41.3000364</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.998683</v>
+      </c>
+      <c r="G71" t="n">
+        <v>6</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>8191</v>
+      </c>
+      <c r="L71" t="n">
+        <v>2</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>3</v>
+      </c>
+      <c r="P71" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>2357909540567016192</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>2357909540567016192</t>
+        </is>
+      </c>
+      <c r="U71" t="n">
+        <v>10</v>
+      </c>
+      <c r="V71" t="n">
+        <v>2</v>
+      </c>
+      <c r="W71" t="n">
+        <v>2</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>8191</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2363685275130938618</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2363685275130938618</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>41.300110600000004, 1.9988522</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>{"t1": 6, "e1": 10.0}</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>41.3001106</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.9988522</v>
+      </c>
+      <c r="G72" t="n">
+        <v>6</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>8191</v>
+      </c>
+      <c r="L72" t="n">
+        <v>2</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>3</v>
+      </c>
+      <c r="P72" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>2363679777572799738</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>2363679777572799738</t>
+        </is>
+      </c>
+      <c r="U72" t="n">
+        <v>10</v>
+      </c>
+      <c r="V72" t="n">
+        <v>2</v>
+      </c>
+      <c r="W72" t="n">
+        <v>2</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>8191</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2364318593845313783</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2364318593845313783</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>41.3001135, 1.9988598000000002</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>{"t1": 6, "e1": 10.0}</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>41.3001135</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.9988598</v>
+      </c>
+      <c r="G73" t="n">
+        <v>6</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>8191</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>3</v>
+      </c>
+      <c r="P73" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>2364313096287174903</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>2364313096287174903</t>
+        </is>
+      </c>
+      <c r="U73" t="n">
+        <v>10</v>
+      </c>
+      <c r="V73" t="n">
+        <v>2</v>
+      </c>
+      <c r="W73" t="n">
+        <v>2</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>8191</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2364670437549425912</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2364670437549425912</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>41.3001183, 1.9988720000000002</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>{"t1": 6, "e1": 10.0}</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>41.3001183</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1.998872</v>
+      </c>
+      <c r="G74" t="n">
+        <v>6</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>8191</v>
+      </c>
+      <c r="L74" t="n">
+        <v>2</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>3</v>
+      </c>
+      <c r="P74" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>2364664940008064248</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>2364664940008064248</t>
+        </is>
+      </c>
+      <c r="U74" t="n">
+        <v>10</v>
+      </c>
+      <c r="V74" t="n">
+        <v>2</v>
+      </c>
+      <c r="W74" t="n">
+        <v>2</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>8191</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2364740806293605891</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2364740806293605891</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>41.3001302, 1.9989022</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>{"t1": 6, "e1": 10.0}</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>41.3001302</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.9989022</v>
+      </c>
+      <c r="G75" t="n">
+        <v>6</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>8191</v>
+      </c>
+      <c r="L75" t="n">
+        <v>2</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>3</v>
+      </c>
+      <c r="P75" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>2364735308735467011</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>2364735308735467011</t>
+        </is>
+      </c>
+      <c r="U75" t="n">
+        <v>10</v>
+      </c>
+      <c r="V75" t="n">
+        <v>2</v>
+      </c>
+      <c r="W75" t="n">
+        <v>2</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>8191</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF75" t="n">
         <v>1</v>
       </c>
     </row>

--- a/loc_and_data_diff.xlsx
+++ b/loc_and_data_diff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF75"/>
+  <dimension ref="A1:AF72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,32 +598,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2419220490777306869</t>
+          <t>2529989707383720171</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2419220490777306869</t>
+          <t>2529989707383720171</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>41.359591800000004, 2.1286251000000003</t>
+          <t>41.4049769, 2.1886329</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{"t5": 539, "e5": 538.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>41.3595918</v>
+        <v>41.4049769</v>
       </c>
       <c r="F2" t="n">
-        <v>2.1286251</v>
+        <v>2.1886329</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
         <v>2</v>
@@ -632,10 +632,10 @@
         <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>539</v>
+        <v>8191</v>
       </c>
       <c r="L2" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
         <v>197</v>
@@ -660,12 +660,12 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2419008285049923317</t>
+          <t>2530058985139095787</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2419008285049923317</t>
+          <t>2530058985139095787</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -678,13 +678,13 @@
         <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>538</v>
+        <v>8191</v>
       </c>
       <c r="Z2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD2" t="n">
         <v>197</v>
@@ -708,32 +708,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2419079770485597957</t>
+          <t>2530060076127896815</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2419079770485597957</t>
+          <t>2530060076127896815</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>41.3594764, 2.1284671</t>
+          <t>41.4049659, 2.1886179</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{"t5": 539, "e5": 538.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>41.3594764</v>
+        <v>41.4049659</v>
       </c>
       <c r="F3" t="n">
-        <v>2.1284671</v>
+        <v>2.1886179</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
@@ -742,10 +742,10 @@
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>539</v>
+        <v>8191</v>
       </c>
       <c r="L3" t="n">
         <v>2</v>
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
         <v>197</v>
@@ -770,12 +770,12 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2419149039734925061</t>
+          <t>2530129353883272431</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2419149039734925061</t>
+          <t>2530129353883272431</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -788,13 +788,13 @@
         <v>2</v>
       </c>
       <c r="X3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>538</v>
+        <v>8191</v>
       </c>
       <c r="Z3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD3" t="n">
         <v>197</v>
@@ -818,32 +818,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2435264581646461181</t>
+          <t>2530763763569672439</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2435264581646461181</t>
+          <t>2530763763569672439</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>41.3592207, 2.1281381</t>
+          <t>41.404949, 2.188595</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{"t5": 482, "e5": 481.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>41.3592207</v>
+        <v>41.404949</v>
       </c>
       <c r="F4" t="n">
-        <v>2.1281381</v>
+        <v>2.188595</v>
       </c>
       <c r="G4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
@@ -852,10 +852,10 @@
         <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>482</v>
+        <v>8191</v>
       </c>
       <c r="L4" t="n">
         <v>2</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
         <v>197</v>
@@ -880,12 +880,12 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2435052375902300413</t>
+          <t>2530762672580870391</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2435052375902300413</t>
+          <t>2530762672580870391</t>
         </is>
       </c>
       <c r="U4" t="n">
@@ -898,13 +898,13 @@
         <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>481</v>
+        <v>8191</v>
       </c>
       <c r="Z4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD4" t="n">
         <v>197</v>
@@ -928,32 +928,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2435123844325879293</t>
+          <t>2531397082250494197</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2435123844325879293</t>
+          <t>2531397082250494197</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>41.3590899, 2.1279612</t>
+          <t>41.4049406, 2.1885835</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{"t5": 482, "e5": 481.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>41.3590899</v>
+        <v>41.4049406</v>
       </c>
       <c r="F5" t="n">
-        <v>2.1279612</v>
+        <v>2.1885835</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
@@ -962,10 +962,10 @@
         <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>482</v>
+        <v>8191</v>
       </c>
       <c r="L5" t="n">
         <v>2</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>197</v>
@@ -990,12 +990,12 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2435193113575206397</t>
+          <t>2531395991278469365</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2435193113575206397</t>
+          <t>2531395991278469365</t>
         </is>
       </c>
       <c r="U5" t="n">
@@ -1008,13 +1008,13 @@
         <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>481</v>
+        <v>8191</v>
       </c>
       <c r="Z5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD5" t="n">
         <v>197</v>
@@ -1038,32 +1038,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2446805055691599104</t>
+          <t>2531748925988159733</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2446805055691599104</t>
+          <t>2531748925988159733</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>41.3588231, 2.1276061</t>
+          <t>41.404938900000005, 2.1885813</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{"t5": 441, "e5": 440.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>41.3588231</v>
+        <v>41.4049389</v>
       </c>
       <c r="F6" t="n">
-        <v>2.1276061</v>
+        <v>2.1885813</v>
       </c>
       <c r="G6" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
@@ -1072,10 +1072,10 @@
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>441</v>
+        <v>8191</v>
       </c>
       <c r="L6" t="n">
         <v>2</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
         <v>197</v>
@@ -1100,16 +1100,16 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2446592849930661120</t>
+          <t>2531747834999357685</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2446592849930661120</t>
+          <t>2531747834999357685</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="V6" t="n">
         <v>2</v>
@@ -1118,13 +1118,13 @@
         <v>2</v>
       </c>
       <c r="X6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>440</v>
+        <v>8191</v>
       </c>
       <c r="Z6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD6" t="n">
         <v>197</v>
@@ -1148,32 +1148,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2471574853623262464</t>
+          <t>2531608188499804405</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2471574853623262464</t>
+          <t>2531608188499804405</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>41.3582674, 2.1268657</t>
+          <t>41.4049388, 2.1885811</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{"t5": 353, "e5": 352.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>41.3582674</v>
+        <v>41.4049388</v>
       </c>
       <c r="F7" t="n">
-        <v>2.1268657</v>
+        <v>2.1885811</v>
       </c>
       <c r="G7" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
@@ -1182,10 +1182,10 @@
         <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>353</v>
+        <v>8191</v>
       </c>
       <c r="L7" t="n">
         <v>2</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
         <v>197</v>
@@ -1210,16 +1210,16 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2471362647879101696</t>
+          <t>2531607097511002357</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>2471362647879101696</t>
+          <t>2531607097511002357</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="V7" t="n">
         <v>2</v>
@@ -1228,13 +1228,13 @@
         <v>2</v>
       </c>
       <c r="X7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>352</v>
+        <v>8191</v>
       </c>
       <c r="Z7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD7" t="n">
         <v>197</v>
@@ -1258,32 +1258,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2483467171389287682</t>
+          <t>2531678557243982069</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2483467171389287682</t>
+          <t>2531678557243982069</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>41.357981800000005, 2.1265118</t>
+          <t>41.404939399999996, 2.1885819</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{"t5": 310, "e5": 309.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>41.3579818</v>
+        <v>41.4049394</v>
       </c>
       <c r="F8" t="n">
-        <v>2.1265118</v>
+        <v>2.1885819</v>
       </c>
       <c r="G8" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
         <v>2</v>
@@ -1292,10 +1292,10 @@
         <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>310</v>
+        <v>8191</v>
       </c>
       <c r="L8" t="n">
         <v>2</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
         <v>197</v>
@@ -1320,16 +1320,16 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2483536440621837570</t>
+          <t>2531677466255180021</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2483536440621837570</t>
+          <t>2531677466255180021</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="V8" t="n">
         <v>2</v>
@@ -1338,13 +1338,13 @@
         <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>309</v>
+        <v>8191</v>
       </c>
       <c r="Z8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD8" t="n">
         <v>197</v>
@@ -1368,32 +1368,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2489448514661166336</t>
+          <t>2531748925971382517</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2489448514661166336</t>
+          <t>2531748925971382517</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>41.35784, 2.1263282</t>
+          <t>41.4049426, 2.1885863</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{"t5": 289, "e5": 288.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>41.35784</v>
+        <v>41.4049426</v>
       </c>
       <c r="F9" t="n">
-        <v>2.1263282</v>
+        <v>2.1885863</v>
       </c>
       <c r="G9" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
@@ -1402,10 +1402,10 @@
         <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>289</v>
+        <v>8191</v>
       </c>
       <c r="L9" t="n">
         <v>2</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
         <v>197</v>
@@ -1430,16 +1430,16 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2489517783876939008</t>
+          <t>2531747834999357685</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2489517783876939008</t>
+          <t>2531747834999357685</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="V9" t="n">
         <v>2</v>
@@ -1448,13 +1448,13 @@
         <v>2</v>
       </c>
       <c r="X9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>288</v>
+        <v>8191</v>
       </c>
       <c r="Z9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD9" t="n">
         <v>197</v>
@@ -1478,32 +1478,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2508166600612423931</t>
+          <t>2531537819755626741</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2508166600612423931</t>
+          <t>2531537819755626741</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>41.3574408, 2.1257881</t>
+          <t>41.404942999999996, 2.1885869000000002</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{"t5": 223, "e5": 222.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>41.3574408</v>
+        <v>41.404943</v>
       </c>
       <c r="F10" t="n">
-        <v>2.1257881</v>
+        <v>2.1885869</v>
       </c>
       <c r="G10" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
@@ -1512,10 +1512,10 @@
         <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>223</v>
+        <v>8191</v>
       </c>
       <c r="L10" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
         <v>197</v>
@@ -1540,16 +1540,16 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2507954394885040379</t>
+          <t>2531536728766824693</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>2507954394885040379</t>
+          <t>2531536728766824693</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="V10" t="n">
         <v>2</v>
@@ -1558,13 +1558,13 @@
         <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222</v>
+        <v>8191</v>
       </c>
       <c r="Z10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD10" t="n">
         <v>197</v>
@@ -1588,32 +1588,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2562957464047746048</t>
+          <t>2531326713573425397</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2562957464047746048</t>
+          <t>2531326713573425397</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>41.3050001, 2.0674151999999997</t>
+          <t>41.4049429, 2.1885868</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{"t6": 2, "e6": 1.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>41.3050001</v>
+        <v>41.4049429</v>
       </c>
       <c r="F11" t="n">
-        <v>2.0674152</v>
+        <v>2.1885868</v>
       </c>
       <c r="G11" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
         <v>197</v>
@@ -1650,12 +1650,12 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2562956364569672704</t>
+          <t>2531325622534291701</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>2562956364569672704</t>
+          <t>2531325622534291701</t>
         </is>
       </c>
       <c r="U11" t="n">
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD11" t="n">
         <v>197</v>
@@ -1698,32 +1698,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2566405532478897152</t>
+          <t>2531397082267271413</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2566405532478897152</t>
+          <t>2531397082267271413</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>41.3049148, 2.0671614000000003</t>
+          <t>41.4049429, 2.1885867</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{"t6": 2, "e6": 1.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>41.3049148</v>
+        <v>41.4049429</v>
       </c>
       <c r="F12" t="n">
-        <v>2.0671614</v>
+        <v>2.1885867</v>
       </c>
       <c r="G12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
         <v>2</v>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
         <v>197</v>
@@ -1760,12 +1760,12 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2566404432967269376</t>
+          <t>2531395991278469365</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>2566404432967269376</t>
+          <t>2531395991278469365</t>
         </is>
       </c>
       <c r="U12" t="n">
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD12" t="n">
         <v>197</v>
@@ -1808,32 +1808,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2569853600943601408</t>
+          <t>2531467450994671861</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2569853600943601408</t>
+          <t>2531467450994671861</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>41.304873199999996, 2.0670378</t>
+          <t>41.4049428, 2.1885865</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{"t6": 2, "e6": 1.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>41.3048732</v>
+        <v>41.4049428</v>
       </c>
       <c r="F13" t="n">
-        <v>2.0670378</v>
+        <v>2.1885865</v>
       </c>
       <c r="G13" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
         <v>2</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
         <v>197</v>
@@ -1870,12 +1870,12 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>2569852501448750848</t>
+          <t>2531466360022647029</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>2569852501448750848</t>
+          <t>2531466360022647029</t>
         </is>
       </c>
       <c r="U13" t="n">
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD13" t="n">
         <v>197</v>
@@ -1918,32 +1918,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2572738719471662848</t>
+          <t>2531537819755626741</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2572738719471662848</t>
+          <t>2531537819755626741</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>41.3048342, 2.0669217</t>
+          <t>41.4049425, 2.1885862</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{"t6": 2, "e6": 1.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>41.3048342</v>
+        <v>41.4049425</v>
       </c>
       <c r="F14" t="n">
-        <v>2.0669217</v>
+        <v>2.1885862</v>
       </c>
       <c r="G14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
         <v>2</v>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
         <v>197</v>
@@ -1980,12 +1980,12 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2572737619943257856</t>
+          <t>2531536728766824693</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>2572737619943257856</t>
+          <t>2531536728766824693</t>
         </is>
       </c>
       <c r="U14" t="n">
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD14" t="n">
         <v>197</v>
@@ -2028,32 +2028,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2307658560714076668</t>
+          <t>2531397082284048629</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2307658560714076668</t>
+          <t>2531397082284048629</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>41.419767799999995, 2.0024457</t>
+          <t>41.4049424, 2.188586</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>41.4197678</v>
+        <v>41.4049424</v>
       </c>
       <c r="F15" t="n">
-        <v>2.0024457</v>
+        <v>2.188586</v>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H15" t="n">
         <v>2</v>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>197</v>
@@ -2090,16 +2090,16 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>2307791601654591996</t>
+          <t>2531395991278469365</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>2307791601654591996</t>
+          <t>2531395991278469365</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V15" t="n">
         <v>2</v>
@@ -2114,7 +2114,7 @@
         <v>8191</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD15" t="n">
         <v>197</v>
@@ -2138,32 +2138,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2310191835435266555</t>
+          <t>2531467451011449077</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2310191835435266555</t>
+          <t>2531467451011449077</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>41.4197202, 2.0022217</t>
+          <t>41.4049423, 2.1885859</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>41.4197202</v>
+        <v>41.4049423</v>
       </c>
       <c r="F16" t="n">
-        <v>2.0022217</v>
+        <v>2.1885859</v>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
         <v>2</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
         <v>197</v>
@@ -2200,16 +2200,16 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>2310324876342227451</t>
+          <t>2531466360022647029</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>2310324876342227451</t>
+          <t>2531466360022647029</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V16" t="n">
         <v>2</v>
@@ -2224,7 +2224,7 @@
         <v>8191</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD16" t="n">
         <v>197</v>
@@ -2248,32 +2248,32 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2313147322673951223</t>
+          <t>2531537819738849525</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2313147322673951223</t>
+          <t>2531537819738849525</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>41.4196983, 2.0021067</t>
+          <t>41.4049423, 2.1885858</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>41.4196983</v>
+        <v>41.4049423</v>
       </c>
       <c r="F17" t="n">
-        <v>2.0021067</v>
+        <v>2.1885858</v>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H17" t="n">
         <v>2</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
         <v>197</v>
@@ -2310,16 +2310,16 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2312998888620978679</t>
+          <t>2531536728766824693</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>2312998888620978679</t>
+          <t>2531536728766824693</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V17" t="n">
         <v>2</v>
@@ -2334,7 +2334,7 @@
         <v>8191</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD17" t="n">
         <v>197</v>
@@ -2358,32 +2358,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2315821334969478121</t>
+          <t>2531397082250494197</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2315821334969478121</t>
+          <t>2531397082250494197</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>41.4196944, 2.0020003</t>
+          <t>41.4049422, 2.1885858</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>41.4196944</v>
+        <v>41.4049422</v>
       </c>
       <c r="F18" t="n">
-        <v>2.0020003</v>
+        <v>2.1885858</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H18" t="n">
         <v>2</v>
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
         <v>197</v>
@@ -2420,16 +2420,16 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2315954375876439017</t>
+          <t>2531395991278469365</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>2315954375876439017</t>
+          <t>2531395991278469365</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V18" t="n">
         <v>2</v>
@@ -2444,7 +2444,7 @@
         <v>8191</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD18" t="n">
         <v>197</v>
@@ -2468,32 +2468,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2318776822209212928</t>
+          <t>2531537819755626741</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2318776822209212928</t>
+          <t>2531537819755626741</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>41.4197097, 2.0019367999999997</t>
+          <t>41.4049422, 2.1885857</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>41.4197097</v>
+        <v>41.4049422</v>
       </c>
       <c r="F19" t="n">
-        <v>2.0019368</v>
+        <v>2.1885857</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H19" t="n">
         <v>2</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
         <v>197</v>
@@ -2530,16 +2530,16 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>2318628388156240384</t>
+          <t>2531536728766824693</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>2318628388156240384</t>
+          <t>2531536728766824693</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V19" t="n">
         <v>2</v>
@@ -2554,7 +2554,7 @@
         <v>8191</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD19" t="n">
         <v>197</v>
@@ -2578,32 +2578,32 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2308542516451888153</t>
+          <t>2531397082250494197</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2308542516451888153</t>
+          <t>2531397082250494197</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>41.420068, 2.0017413</t>
+          <t>41.404942, 2.1885854</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>41.420068</v>
+        <v>41.404942</v>
       </c>
       <c r="F20" t="n">
-        <v>2.0017413</v>
+        <v>2.1885854</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H20" t="n">
         <v>2</v>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
         <v>197</v>
@@ -2640,16 +2640,16 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>2308534819870493721</t>
+          <t>2531395991278469365</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>2308534819870493721</t>
+          <t>2531395991278469365</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V20" t="n">
         <v>2</v>
@@ -2664,7 +2664,7 @@
         <v>8191</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20" t="n">
         <v>0</v>
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD20" t="n">
         <v>197</v>
@@ -2688,32 +2688,32 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2308612936718897929</t>
+          <t>2531467451011449077</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2308612936718897929</t>
+          <t>2531467451011449077</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>41.420098599999996, 2.0017542</t>
+          <t>41.4049419, 2.1885854</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>41.4200986</v>
+        <v>41.4049419</v>
       </c>
       <c r="F21" t="n">
-        <v>2.0017542</v>
+        <v>2.1885854</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H21" t="n">
         <v>2</v>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
         <v>197</v>
@@ -2750,16 +2750,16 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>2308605240171057929</t>
+          <t>2531466360022647029</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>2308605240171057929</t>
+          <t>2531466360022647029</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V21" t="n">
         <v>2</v>
@@ -2774,7 +2774,7 @@
         <v>8191</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21" t="n">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD21" t="n">
         <v>197</v>
@@ -2798,32 +2798,32 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2310653630316827643</t>
+          <t>2531326713523093749</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2310653630316827643</t>
+          <t>2531326713523093749</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>41.4201726, 2.0017738</t>
+          <t>41.4049419, 2.1885853</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>41.4201726</v>
+        <v>41.4049419</v>
       </c>
       <c r="F22" t="n">
-        <v>2.0017738</v>
+        <v>2.1885853</v>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H22" t="n">
         <v>2</v>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P22" t="n">
         <v>197</v>
@@ -2860,16 +2860,16 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>2310645933752210427</t>
+          <t>2531325622534291701</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>2310645933752210427</t>
+          <t>2531325622534291701</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V22" t="n">
         <v>2</v>
@@ -2884,7 +2884,7 @@
         <v>8191</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD22" t="n">
         <v>197</v>
@@ -2908,32 +2908,32 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2315297967432551939</t>
+          <t>2531397082267271413</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2315297967432551939</t>
+          <t>2531397082267271413</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>41.420308, 2.0017753</t>
+          <t>41.4049418, 2.1885853</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>41.420308</v>
+        <v>41.4049418</v>
       </c>
       <c r="F23" t="n">
-        <v>2.0017753</v>
+        <v>2.1885853</v>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H23" t="n">
         <v>2</v>
@@ -2957,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P23" t="n">
         <v>197</v>
@@ -2970,16 +2970,16 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>2315290270851157507</t>
+          <t>2531395991278469365</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>2315290270851157507</t>
+          <t>2531395991278469365</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V23" t="n">
         <v>2</v>
@@ -2994,7 +2994,7 @@
         <v>8191</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD23" t="n">
         <v>197</v>
@@ -3018,32 +3018,32 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2316846079787682049</t>
+          <t>2531537819772403957</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2316846079787682049</t>
+          <t>2531537819772403957</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>41.420354100000004, 2.0017703</t>
+          <t>41.4049418, 2.1885852</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>41.4203541</v>
+        <v>41.4049418</v>
       </c>
       <c r="F24" t="n">
-        <v>2.0017703</v>
+        <v>2.1885852</v>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H24" t="n">
         <v>2</v>
@@ -3067,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P24" t="n">
         <v>197</v>
@@ -3080,16 +3080,16 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>2317049489455597825</t>
+          <t>2531466360022647029</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>2317049489455597825</t>
+          <t>2531466360022647029</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V24" t="n">
         <v>2</v>
@@ -3104,7 +3104,7 @@
         <v>8191</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD24" t="n">
         <v>197</v>
@@ -3128,32 +3128,32 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2317479398485281024</t>
+          <t>2531608188499805430</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2317479398485281024</t>
+          <t>2531608188499805430</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>41.4203769, 2.0017678</t>
+          <t>41.404936400000004, 2.1885779000000003</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>41.4203769</v>
+        <v>41.4049364</v>
       </c>
       <c r="F25" t="n">
-        <v>2.0017678</v>
+        <v>2.1885779</v>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H25" t="n">
         <v>2</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P25" t="n">
         <v>197</v>
@@ -3190,16 +3190,16 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>2317401333176486144</t>
+          <t>2531607097511003382</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>2317401333176486144</t>
+          <t>2531607097511003382</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V25" t="n">
         <v>2</v>
@@ -3214,7 +3214,7 @@
         <v>8191</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD25" t="n">
         <v>197</v>
@@ -3238,32 +3238,32 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2369908510960926970</t>
+          <t>2532241507197406720</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2369908510960926970</t>
+          <t>2532241507197406720</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>41.4203265, 2.0017733</t>
+          <t>41.4049083, 2.1885398</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>41.4203265</v>
+        <v>41.4049083</v>
       </c>
       <c r="F26" t="n">
-        <v>2.0017733</v>
+        <v>2.1885398</v>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H26" t="n">
         <v>2</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P26" t="n">
         <v>197</v>
@@ -3300,16 +3300,16 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>2369971183123710202</t>
+          <t>2532240416208604672</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>2369971183123710202</t>
+          <t>2532240416208604672</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V26" t="n">
         <v>2</v>
@@ -3324,7 +3324,7 @@
         <v>8191</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="AC26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD26" t="n">
         <v>197</v>
@@ -3348,32 +3348,32 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2370260354681815290</t>
+          <t>2533156300871717632</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2370260354681815290</t>
+          <t>2533156300871717632</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>41.4203199, 2.0017739999999997</t>
+          <t>41.4048839, 2.1885066</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>41.4203199</v>
+        <v>41.4048839</v>
       </c>
       <c r="F27" t="n">
-        <v>2.001774</v>
+        <v>2.1885066</v>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H27" t="n">
         <v>2</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P27" t="n">
         <v>197</v>
@@ -3410,16 +3410,16 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>2370041551867887866</t>
+          <t>2533155209882915584</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>2370041551867887866</t>
+          <t>2533155209882915584</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V27" t="n">
         <v>2</v>
@@ -3434,7 +3434,7 @@
         <v>8191</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD27" t="n">
         <v>197</v>
@@ -3458,32 +3458,32 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2370330723425992706</t>
+          <t>2534352569522737920</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2370330723425992706</t>
+          <t>2534352569522737920</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>41.4203136, 2.0017747</t>
+          <t>41.4048553, 2.1884676</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>41.4203136</v>
+        <v>41.4048553</v>
       </c>
       <c r="F28" t="n">
-        <v>2.0017747</v>
+        <v>2.1884676</v>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H28" t="n">
         <v>2</v>
@@ -3507,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P28" t="n">
         <v>197</v>
@@ -3520,16 +3520,16 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>2370393395588775938</t>
+          <t>2534351478533935872</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>2370393395588775938</t>
+          <t>2534351478533935872</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V28" t="n">
         <v>2</v>
@@ -3544,7 +3544,7 @@
         <v>8191</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD28" t="n">
         <v>197</v>
@@ -3568,32 +3568,32 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2370401092170171394</t>
+          <t>2535267363213826301</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2370401092170171394</t>
+          <t>2535267363213826301</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>41.4203047, 2.0017757</t>
+          <t>41.4048255, 2.1884267</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>41.4203047</v>
+        <v>41.4048255</v>
       </c>
       <c r="F29" t="n">
-        <v>2.0017757</v>
+        <v>2.1884267</v>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H29" t="n">
         <v>2</v>
@@ -3617,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P29" t="n">
         <v>197</v>
@@ -3630,16 +3630,16 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>2370463764332954626</t>
+          <t>2535266272208247037</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>2370463764332954626</t>
+          <t>2535266272208247037</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V29" t="n">
         <v>2</v>
@@ -3654,7 +3654,7 @@
         <v>8191</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA29" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD29" t="n">
         <v>197</v>
@@ -3678,32 +3678,32 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2371315885827704057</t>
+          <t>2538152481691556091</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2371315885827704057</t>
+          <t>2538152481691556091</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>41.4202769, 2.0017782</t>
+          <t>41.4047586, 2.1883349</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>41.4202769</v>
+        <v>41.4047586</v>
       </c>
       <c r="F30" t="n">
-        <v>2.0017782</v>
+        <v>2.1883349</v>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H30" t="n">
         <v>2</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P30" t="n">
         <v>197</v>
@@ -3740,16 +3740,16 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>2371378558007264505</t>
+          <t>2538151390719531259</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>2371378558007264505</t>
+          <t>2538151390719531259</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V30" t="n">
         <v>2</v>
@@ -3764,7 +3764,7 @@
         <v>8191</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA30" t="n">
         <v>0</v>
@@ -3773,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD30" t="n">
         <v>197</v>
@@ -3788,32 +3788,32 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2372230679518790907</t>
+          <t>2541037600219616001</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2372230679518790907</t>
+          <t>2541037600219616001</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>41.4202465, 2.0017782</t>
+          <t>41.4047033, 2.1882592</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>41.4202465</v>
+        <v>41.4047033</v>
       </c>
       <c r="F31" t="n">
-        <v>2.0017782</v>
+        <v>2.1882592</v>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H31" t="n">
         <v>2</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P31" t="n">
         <v>197</v>
@@ -3850,16 +3850,16 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>2372011876704863483</t>
+          <t>2541036509230813953</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>2372011876704863483</t>
+          <t>2541036509230813953</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V31" t="n">
         <v>2</v>
@@ -3874,7 +3874,7 @@
         <v>8191</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD31" t="n">
         <v>197</v>
@@ -3898,32 +3898,32 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2372582523239680508</t>
+          <t>2544204193707609602</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2372582523239680508</t>
+          <t>2544204193707609602</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>41.4202247, 2.0017782</t>
+          <t>41.4046594, 2.1881988</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>41.4202247</v>
+        <v>41.4046594</v>
       </c>
       <c r="F32" t="n">
-        <v>2.0017782</v>
+        <v>2.1881988</v>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H32" t="n">
         <v>2</v>
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P32" t="n">
         <v>197</v>
@@ -3960,16 +3960,16 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>2372645195402463740</t>
+          <t>2544203102718807554</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>2372645195402463740</t>
+          <t>2544203102718807554</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V32" t="n">
         <v>2</v>
@@ -3984,7 +3984,7 @@
         <v>8191</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA32" t="n">
         <v>0</v>
@@ -3993,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD32" t="n">
         <v>197</v>
@@ -4008,32 +4008,32 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2374060266867412727</t>
+          <t>2544837512405207547</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2374060266867412727</t>
+          <t>2544837512405207547</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>41.4201692, 2.001773</t>
+          <t>41.4046282, 2.1881535999999997</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>41.4201692</v>
+        <v>41.4046282</v>
       </c>
       <c r="F33" t="n">
-        <v>2.001773</v>
+        <v>2.1881536</v>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H33" t="n">
         <v>2</v>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P33" t="n">
         <v>197</v>
@@ -4070,16 +4070,16 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>2374122939030195959</t>
+          <t>2544836421416405499</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>2374122939030195959</t>
+          <t>2544836421416405499</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V33" t="n">
         <v>2</v>
@@ -4094,7 +4094,7 @@
         <v>8191</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA33" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD33" t="n">
         <v>197</v>
@@ -4118,32 +4118,32 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2375819485471854329</t>
+          <t>2545470831102805243</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2375819485471854329</t>
+          <t>2545470831102805243</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>41.420113300000004, 2.00176</t>
+          <t>41.4046161, 2.1881361</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>41.4201133</v>
+        <v>41.4046161</v>
       </c>
       <c r="F34" t="n">
-        <v>2.00176</v>
+        <v>2.1881361</v>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H34" t="n">
         <v>2</v>
@@ -4167,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P34" t="n">
         <v>197</v>
@@ -4180,16 +4180,16 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>2375882157634637561</t>
+          <t>2545469740114003195</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>2375882157634637561</t>
+          <t>2545469740114003195</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V34" t="n">
         <v>2</v>
@@ -4204,7 +4204,7 @@
         <v>8191</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA34" t="n">
         <v>0</v>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD34" t="n">
         <v>197</v>
@@ -4228,32 +4228,32 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2378493497750605316</t>
+          <t>2547089312218890491</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2378493497750605316</t>
+          <t>2547089312218890491</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>41.4200199, 2.001721</t>
+          <t>41.404590299999995, 2.1880986</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>41.4200199</v>
+        <v>41.4045903</v>
       </c>
       <c r="F35" t="n">
-        <v>2.001721</v>
+        <v>2.1880986</v>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H35" t="n">
         <v>2</v>
@@ -4277,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P35" t="n">
         <v>197</v>
@@ -4290,16 +4290,16 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>2378556169913388548</t>
+          <t>2547299327462621435</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>2378556169913388548</t>
+          <t>2547299327462621435</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V35" t="n">
         <v>2</v>
@@ -4314,7 +4314,7 @@
         <v>8191</v>
       </c>
       <c r="Z35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA35" t="n">
         <v>0</v>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="AC35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD35" t="n">
         <v>197</v>
@@ -4338,32 +4338,32 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2380815666308468507</t>
+          <t>2547159680963068155</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2380815666308468507</t>
+          <t>2547159680963068155</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>41.4199902, 2.0017084</t>
+          <t>41.4045906, 2.188099</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>41.4199902</v>
+        <v>41.4045906</v>
       </c>
       <c r="F36" t="n">
-        <v>2.0017084</v>
+        <v>2.188099</v>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H36" t="n">
         <v>2</v>
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P36" t="n">
         <v>197</v>
@@ -4400,16 +4400,16 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>2380878338471251739</t>
+          <t>2547088221230088443</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>2380878338471251739</t>
+          <t>2547088221230088443</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V36" t="n">
         <v>2</v>
@@ -4424,7 +4424,7 @@
         <v>8191</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA36" t="n">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD36" t="n">
         <v>197</v>
@@ -4448,32 +4448,32 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2381730459985924871</t>
+          <t>2547230049707245819</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2381730459985924871</t>
+          <t>2547230049707245819</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>41.419926000000004, 2.0017302</t>
+          <t>41.4045919, 2.1881009</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>41.419926</v>
+        <v>41.4045919</v>
       </c>
       <c r="F37" t="n">
-        <v>2.0017302</v>
+        <v>2.1881009</v>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H37" t="n">
         <v>2</v>
@@ -4497,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P37" t="n">
         <v>197</v>
@@ -4510,16 +4510,16 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>2381793132148708103</t>
+          <t>2547158589974266107</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>2381793132148708103</t>
+          <t>2547158589974266107</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V37" t="n">
         <v>2</v>
@@ -4534,7 +4534,7 @@
         <v>8191</v>
       </c>
       <c r="Z37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA37" t="n">
         <v>0</v>
@@ -4543,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="AC37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD37" t="n">
         <v>197</v>
@@ -4558,32 +4558,32 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2382785991164318716</t>
+          <t>2547300418451423483</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2382785991164318716</t>
+          <t>2547300418451423483</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>41.4198904, 2.0017423</t>
+          <t>41.4045937, 2.1881036</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>41.4198904</v>
+        <v>41.4045937</v>
       </c>
       <c r="F38" t="n">
-        <v>2.0017423</v>
+        <v>2.1881036</v>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H38" t="n">
         <v>2</v>
@@ -4607,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P38" t="n">
         <v>197</v>
@@ -4620,16 +4620,16 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>2382848663327101948</t>
+          <t>2547228958718443771</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>2382848663327101948</t>
+          <t>2547228958718443771</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V38" t="n">
         <v>2</v>
@@ -4644,7 +4644,7 @@
         <v>8191</v>
       </c>
       <c r="Z38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA38" t="n">
         <v>0</v>
@@ -4653,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="AC38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD38" t="n">
         <v>197</v>
@@ -4668,32 +4668,32 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2385741478403003117</t>
+          <t>2547089312218890491</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2385741478403003117</t>
+          <t>2547089312218890491</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>41.419842, 2.0017460999999996</t>
+          <t>41.4045952, 2.1881057999999998</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>41.419842</v>
+        <v>41.4045952</v>
       </c>
       <c r="F39" t="n">
-        <v>2.0017461</v>
+        <v>2.1881058</v>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H39" t="n">
         <v>2</v>
@@ -4717,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P39" t="n">
         <v>197</v>
@@ -4730,16 +4730,16 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>2385522675605852909</t>
+          <t>2547299327462621435</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>2385522675605852909</t>
+          <t>2547299327462621435</t>
         </is>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V39" t="n">
         <v>2</v>
@@ -4754,7 +4754,7 @@
         <v>8191</v>
       </c>
       <c r="Z39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA39" t="n">
         <v>0</v>
@@ -4763,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="AC39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD39" t="n">
         <v>197</v>
@@ -4778,32 +4778,32 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2385600740914647792</t>
+          <t>2546878205986357499</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2385600740914647792</t>
+          <t>2546878205986357499</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>41.4198076, 2.001743</t>
+          <t>41.4045984, 2.1881103</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>41.4198076</v>
+        <v>41.4045984</v>
       </c>
       <c r="F40" t="n">
-        <v>2.001743</v>
+        <v>2.1881103</v>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H40" t="n">
         <v>2</v>
@@ -4827,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P40" t="n">
         <v>197</v>
@@ -4840,16 +4840,16 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>2385663413077431024</t>
+          <t>2546806746253377787</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>2385663413077431024</t>
+          <t>2546806746253377787</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V40" t="n">
         <v>2</v>
@@ -4864,7 +4864,7 @@
         <v>8191</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA40" t="n">
         <v>0</v>
@@ -4873,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="AC40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD40" t="n">
         <v>197</v>
@@ -4888,32 +4888,32 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2386867378307747577</t>
+          <t>2546948574730535163</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2386867378307747577</t>
+          <t>2546948574730535163</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>41.4197724, 2.0017399</t>
+          <t>41.4046018, 2.1881153</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>41.4197724</v>
+        <v>41.4046018</v>
       </c>
       <c r="F41" t="n">
-        <v>2.0017399</v>
+        <v>2.1881153</v>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H41" t="n">
         <v>2</v>
@@ -4937,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P41" t="n">
         <v>197</v>
@@ -4950,16 +4950,16 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>2386648575477042937</t>
+          <t>2546877114997555451</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>2386648575477042937</t>
+          <t>2546877114997555451</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V41" t="n">
         <v>2</v>
@@ -4974,7 +4974,7 @@
         <v>8191</v>
       </c>
       <c r="Z41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA41" t="n">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="AC41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD41" t="n">
         <v>197</v>
@@ -4998,32 +4998,32 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2388626596895411717</t>
+          <t>2546526362265469179</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2388626596895411717</t>
+          <t>2546526362265469179</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>41.419709, 2.0017223</t>
+          <t>41.4046039, 2.1881182999999997</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>41.419709</v>
+        <v>41.4046039</v>
       </c>
       <c r="F42" t="n">
-        <v>2.0017223</v>
+        <v>2.1881183</v>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H42" t="n">
         <v>2</v>
@@ -5047,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P42" t="n">
         <v>197</v>
@@ -5060,16 +5060,16 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>2388689269074972165</t>
+          <t>2546736377509200123</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>2388689269074972165</t>
+          <t>2546736377509200123</t>
         </is>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V42" t="n">
         <v>2</v>
@@ -5084,7 +5084,7 @@
         <v>8191</v>
       </c>
       <c r="Z42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA42" t="n">
         <v>0</v>
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="AC42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD42" t="n">
         <v>197</v>
@@ -5108,32 +5108,32 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2389822865563209218</t>
+          <t>2546667099753824507</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2389822865563209218</t>
+          <t>2546667099753824507</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>41.4196779, 2.001701</t>
+          <t>41.4046038, 2.1881182</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>41.4196779</v>
+        <v>41.4046038</v>
       </c>
       <c r="F43" t="n">
-        <v>2.001701</v>
+        <v>2.1881182</v>
       </c>
       <c r="G43" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H43" t="n">
         <v>2</v>
@@ -5157,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P43" t="n">
         <v>197</v>
@@ -5170,16 +5170,16 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>2389885537725992450</t>
+          <t>2546595640020844795</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>2389885537725992450</t>
+          <t>2546595640020844795</t>
         </is>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V43" t="n">
         <v>2</v>
@@ -5194,7 +5194,7 @@
         <v>8191</v>
       </c>
       <c r="Z43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA43" t="n">
         <v>0</v>
@@ -5203,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="AC43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD43" t="n">
         <v>197</v>
@@ -5218,32 +5218,32 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2394185727702222075</t>
+          <t>2546526362265469179</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2394185727702222075</t>
+          <t>2546526362265469179</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>41.419602000000005, 2.0015877</t>
+          <t>41.4046037, 2.1881181</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>41.419602</v>
+        <v>41.4046037</v>
       </c>
       <c r="F44" t="n">
-        <v>2.0015877</v>
+        <v>2.1881181</v>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H44" t="n">
         <v>2</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P44" t="n">
         <v>197</v>
@@ -5280,16 +5280,16 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>2393966924888294651</t>
+          <t>2546736377509200123</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>2393966924888294651</t>
+          <t>2546736377509200123</t>
         </is>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V44" t="n">
         <v>2</v>
@@ -5304,7 +5304,7 @@
         <v>8191</v>
       </c>
       <c r="Z44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA44" t="n">
         <v>0</v>
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="AC44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD44" t="n">
         <v>197</v>
@@ -5328,32 +5328,32 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2395381996336465146</t>
+          <t>2546667099753824507</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2395381996336465146</t>
+          <t>2546667099753824507</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>41.419589900000005, 2.0015316</t>
+          <t>41.4046037, 2.188118</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>41.41958990000001</v>
+        <v>41.4046037</v>
       </c>
       <c r="F45" t="n">
-        <v>2.0015316</v>
+        <v>2.188118</v>
       </c>
       <c r="G45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H45" t="n">
         <v>2</v>
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P45" t="n">
         <v>197</v>
@@ -5390,16 +5390,16 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>2395444668516025594</t>
+          <t>2546525271276667131</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>2395444668516025594</t>
+          <t>2546525271276667131</t>
         </is>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V45" t="n">
         <v>2</v>
@@ -5414,7 +5414,7 @@
         <v>8191</v>
       </c>
       <c r="Z45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA45" t="n">
         <v>0</v>
@@ -5423,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="AC45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD45" t="n">
         <v>197</v>
@@ -5438,32 +5438,32 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2396015315050841339</t>
+          <t>2546737468498002171</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2396015315050841339</t>
+          <t>2546737468498002171</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>41.419586800000005, 2.001508</t>
+          <t>41.4046034, 2.1881177</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>41.4195868</v>
+        <v>41.4046034</v>
       </c>
       <c r="F46" t="n">
-        <v>2.001508</v>
+        <v>2.1881177</v>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H46" t="n">
         <v>2</v>
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P46" t="n">
         <v>197</v>
@@ -5500,16 +5500,16 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>2396077987196847355</t>
+          <t>2546595640020844795</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>2396077987196847355</t>
+          <t>2546595640020844795</t>
         </is>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V46" t="n">
         <v>2</v>
@@ -5524,7 +5524,7 @@
         <v>8191</v>
       </c>
       <c r="Z46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA46" t="n">
         <v>0</v>
@@ -5533,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="AC46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD46" t="n">
         <v>197</v>
@@ -5548,32 +5548,32 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2396648633748440317</t>
+          <t>2546526362265469179</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2396648633748440317</t>
+          <t>2546526362265469179</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>41.419584300000004, 2.0014882999999997</t>
+          <t>41.4046034, 2.1881176</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>41.4195843</v>
+        <v>41.4046034</v>
       </c>
       <c r="F47" t="n">
-        <v>2.0014883</v>
+        <v>2.1881176</v>
       </c>
       <c r="G47" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H47" t="n">
         <v>2</v>
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P47" t="n">
         <v>197</v>
@@ -5610,16 +5610,16 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>2396711305911223549</t>
+          <t>2546666008765022459</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>2396711305911223549</t>
+          <t>2546666008765022459</t>
         </is>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V47" t="n">
         <v>2</v>
@@ -5634,7 +5634,7 @@
         <v>8191</v>
       </c>
       <c r="Z47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA47" t="n">
         <v>0</v>
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="AC47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD47" t="n">
         <v>197</v>
@@ -5658,32 +5658,32 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2397563427422751224</t>
+          <t>2546596731009646843</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2397563427422751224</t>
+          <t>2546596731009646843</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>41.4195811, 2.0014542</t>
+          <t>41.4046033, 2.1881174</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>41.4195811</v>
+        <v>41.4046033</v>
       </c>
       <c r="F48" t="n">
-        <v>2.0014542</v>
+        <v>2.1881174</v>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H48" t="n">
         <v>2</v>
@@ -5707,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P48" t="n">
         <v>197</v>
@@ -5720,16 +5720,16 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>2397344624608823800</t>
+          <t>2546736377509200123</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>2397344624608823800</t>
+          <t>2546736377509200123</t>
         </is>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V48" t="n">
         <v>2</v>
@@ -5744,7 +5744,7 @@
         <v>8191</v>
       </c>
       <c r="Z48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA48" t="n">
         <v>0</v>
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="AC48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD48" t="n">
         <v>197</v>
@@ -5768,32 +5768,32 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2397915271143640825</t>
+          <t>2546667099753824507</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2397915271143640825</t>
+          <t>2546667099753824507</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>41.419579500000005, 2.0014227</t>
+          <t>41.4046032, 2.1881174</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>41.4195795</v>
+        <v>41.4046032</v>
       </c>
       <c r="F49" t="n">
-        <v>2.0014227</v>
+        <v>2.1881174</v>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H49" t="n">
         <v>2</v>
@@ -5817,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P49" t="n">
         <v>197</v>
@@ -5830,16 +5830,16 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>2397977943306424057</t>
+          <t>2546525271276667131</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>2397977943306424057</t>
+          <t>2546525271276667131</t>
         </is>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V49" t="n">
         <v>2</v>
@@ -5854,7 +5854,7 @@
         <v>8191</v>
       </c>
       <c r="Z49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA49" t="n">
         <v>0</v>
@@ -5863,7 +5863,7 @@
         <v>0</v>
       </c>
       <c r="AC49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD49" t="n">
         <v>197</v>
@@ -5878,32 +5878,32 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2398830064817951740</t>
+          <t>2546526362265469179</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2398830064817951740</t>
+          <t>2546526362265469179</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>41.419577000000004, 2.0013720999999998</t>
+          <t>41.4046032, 2.1881173</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{"t1": 4, "e1": 0.0, "t6": 2, "e6": 0.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>41.419577</v>
+        <v>41.4046032</v>
       </c>
       <c r="F50" t="n">
-        <v>2.0013721</v>
+        <v>2.1881173</v>
       </c>
       <c r="G50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H50" t="n">
         <v>2</v>
@@ -5927,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P50" t="n">
         <v>197</v>
@@ -5940,16 +5940,16 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>2398892736980734972</t>
+          <t>2546666008765022459</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>2398892736980734972</t>
+          <t>2546666008765022459</t>
         </is>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V50" t="n">
         <v>2</v>
@@ -5964,7 +5964,7 @@
         <v>8191</v>
       </c>
       <c r="Z50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA50" t="n">
         <v>0</v>
@@ -5973,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="AC50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD50" t="n">
         <v>197</v>
@@ -5988,32 +5988,32 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3836036897856050176</t>
+          <t>2546667099753824507</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3836036897856050176</t>
+          <t>2546667099753824507</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>41.4151077, 2.1358946</t>
+          <t>41.4046031, 2.1881172</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{"t5": 1249, "e5": 1250.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>41.4151077</v>
+        <v>41.4046031</v>
       </c>
       <c r="F51" t="n">
-        <v>2.1358946</v>
+        <v>2.1881172</v>
       </c>
       <c r="G51" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H51" t="n">
         <v>2</v>
@@ -6022,10 +6022,10 @@
         <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>1249</v>
+        <v>8191</v>
       </c>
       <c r="L51" t="n">
         <v>2</v>
@@ -6037,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P51" t="n">
         <v>197</v>
@@ -6050,16 +6050,16 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>3835677349014164480</t>
+          <t>2546525271276667131</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>3835677349014164480</t>
+          <t>2546525271276667131</t>
         </is>
       </c>
       <c r="U51" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="V51" t="n">
         <v>2</v>
@@ -6068,13 +6068,13 @@
         <v>2</v>
       </c>
       <c r="X51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y51" t="n">
-        <v>1250</v>
+        <v>8191</v>
       </c>
       <c r="Z51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA51" t="n">
         <v>0</v>
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="AC51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD51" t="n">
         <v>197</v>
@@ -6098,32 +6098,32 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2930956309269358845</t>
+          <t>2546737468498002171</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2930956309269358845</t>
+          <t>2546737468498002171</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>41.402717200000005, 2.1155728</t>
+          <t>41.4046031, 2.1881171</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>{"t5": 1316, "e5": 1315.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>41.4027172</v>
+        <v>41.4046031</v>
       </c>
       <c r="F52" t="n">
-        <v>2.1155728</v>
+        <v>2.1881171</v>
       </c>
       <c r="G52" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H52" t="n">
         <v>2</v>
@@ -6132,10 +6132,10 @@
         <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>1316</v>
+        <v>8191</v>
       </c>
       <c r="L52" t="n">
         <v>2</v>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P52" t="n">
         <v>197</v>
@@ -6160,16 +6160,16 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>2930805676193130749</t>
+          <t>2546595640020844795</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>2930805676193130749</t>
+          <t>2546595640020844795</t>
         </is>
       </c>
       <c r="U52" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="V52" t="n">
         <v>2</v>
@@ -6178,13 +6178,13 @@
         <v>2</v>
       </c>
       <c r="X52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y52" t="n">
-        <v>1315</v>
+        <v>8191</v>
       </c>
       <c r="Z52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA52" t="n">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="AC52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD52" t="n">
         <v>197</v>
@@ -6208,32 +6208,32 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2930885940525181184</t>
+          <t>2546526362265469179</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2930885940525181184</t>
+          <t>2546526362265469179</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>41.402563300000004, 2.1154064000000004</t>
+          <t>41.404603, 2.1881171</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{"t5": 1316, "e5": 1315.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>41.4025633</v>
+        <v>41.404603</v>
       </c>
       <c r="F53" t="n">
-        <v>2.1154064</v>
+        <v>2.1881171</v>
       </c>
       <c r="G53" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H53" t="n">
         <v>2</v>
@@ -6242,10 +6242,10 @@
         <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>1316</v>
+        <v>8191</v>
       </c>
       <c r="L53" t="n">
         <v>2</v>
@@ -6257,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P53" t="n">
         <v>197</v>
@@ -6270,16 +6270,16 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>2930735307448953088</t>
+          <t>2546666008765022459</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>2930735307448953088</t>
+          <t>2546666008765022459</t>
         </is>
       </c>
       <c r="U53" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="V53" t="n">
         <v>2</v>
@@ -6288,13 +6288,13 @@
         <v>2</v>
       </c>
       <c r="X53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y53" t="n">
-        <v>1315</v>
+        <v>8191</v>
       </c>
       <c r="Z53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA53" t="n">
         <v>0</v>
@@ -6303,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="AC53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD53" t="n">
         <v>197</v>
@@ -6318,32 +6318,32 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2954600207346608384</t>
+          <t>2546667099753824507</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2954600207346608384</t>
+          <t>2546667099753824507</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>41.4019805, 2.1147773</t>
+          <t>41.404603, 2.188117</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>{"t5": 1232, "e5": 1231.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>41.4019805</v>
+        <v>41.404603</v>
       </c>
       <c r="F54" t="n">
-        <v>2.1147773</v>
+        <v>2.188117</v>
       </c>
       <c r="G54" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H54" t="n">
         <v>2</v>
@@ -6352,10 +6352,10 @@
         <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>1232</v>
+        <v>8191</v>
       </c>
       <c r="L54" t="n">
         <v>2</v>
@@ -6367,7 +6367,7 @@
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P54" t="n">
         <v>197</v>
@@ -6380,16 +6380,16 @@
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>2954519942997780736</t>
+          <t>2546525271276667131</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>2954519942997780736</t>
+          <t>2546525271276667131</t>
         </is>
       </c>
       <c r="U54" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="V54" t="n">
         <v>2</v>
@@ -6398,13 +6398,13 @@
         <v>2</v>
       </c>
       <c r="X54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>1231</v>
+        <v>8191</v>
       </c>
       <c r="Z54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA54" t="n">
         <v>0</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="AC54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD54" t="n">
         <v>197</v>
@@ -6428,32 +6428,32 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2966633262634544386</t>
+          <t>2546737468498002171</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2966633262634544386</t>
+          <t>2546737468498002171</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>41.4018281, 2.1146157999999997</t>
+          <t>41.4046029, 2.188117</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{"t5": 1189, "e5": 1188.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>41.4018281</v>
+        <v>41.4046029</v>
       </c>
       <c r="F55" t="n">
-        <v>2.1146158</v>
+        <v>2.188117</v>
       </c>
       <c r="G55" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H55" t="n">
         <v>2</v>
@@ -6462,10 +6462,10 @@
         <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>1189</v>
+        <v>8191</v>
       </c>
       <c r="L55" t="n">
         <v>2</v>
@@ -6477,7 +6477,7 @@
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P55" t="n">
         <v>197</v>
@@ -6490,16 +6490,16 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>2966552998252162306</t>
+          <t>2546595640020844795</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>2966552998252162306</t>
+          <t>2546595640020844795</t>
         </is>
       </c>
       <c r="U55" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="V55" t="n">
         <v>2</v>
@@ -6508,13 +6508,13 @@
         <v>2</v>
       </c>
       <c r="X55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y55" t="n">
-        <v>1188</v>
+        <v>8191</v>
       </c>
       <c r="Z55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA55" t="n">
         <v>0</v>
@@ -6523,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="AC55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD55" t="n">
         <v>197</v>
@@ -6538,32 +6538,32 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2972473868349910528</t>
+          <t>2546667099753824507</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2972473868349910528</t>
+          <t>2546667099753824507</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>41.4015188, 2.1143067</t>
+          <t>41.4046029, 2.1881169</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>{"t5": 1168, "e5": 1167.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>41.4015188</v>
+        <v>41.4046029</v>
       </c>
       <c r="F56" t="n">
-        <v>2.1143067</v>
+        <v>2.1881169</v>
       </c>
       <c r="G56" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H56" t="n">
         <v>2</v>
@@ -6572,10 +6572,10 @@
         <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>1168</v>
+        <v>8191</v>
       </c>
       <c r="L56" t="n">
         <v>2</v>
@@ -6587,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P56" t="n">
         <v>197</v>
@@ -6600,16 +6600,16 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>2972393604017860096</t>
+          <t>2546525271276667131</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>2972393604017860096</t>
+          <t>2546525271276667131</t>
         </is>
       </c>
       <c r="U56" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="V56" t="n">
         <v>2</v>
@@ -6618,13 +6618,13 @@
         <v>2</v>
       </c>
       <c r="X56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y56" t="n">
-        <v>1167</v>
+        <v>8191</v>
       </c>
       <c r="Z56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA56" t="n">
         <v>0</v>
@@ -6633,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="AC56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD56" t="n">
         <v>197</v>
@@ -6648,32 +6648,32 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2978807055342677249</t>
+          <t>2546737468498002171</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2978807055342677249</t>
+          <t>2546737468498002171</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>41.4013654, 2.114156</t>
+          <t>41.4046029, 2.1881168</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>{"t5": 1146, "e5": 1145.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>41.4013654</v>
+        <v>41.4046029</v>
       </c>
       <c r="F57" t="n">
-        <v>2.114156</v>
+        <v>2.1881168</v>
       </c>
       <c r="G57" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H57" t="n">
         <v>2</v>
@@ -6682,10 +6682,10 @@
         <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>1146</v>
+        <v>8191</v>
       </c>
       <c r="L57" t="n">
         <v>2</v>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P57" t="n">
         <v>197</v>
@@ -6710,16 +6710,16 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>2978726790977072385</t>
+          <t>2546595640020844795</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>2978726790977072385</t>
+          <t>2546595640020844795</t>
         </is>
       </c>
       <c r="U57" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="V57" t="n">
         <v>2</v>
@@ -6728,13 +6728,13 @@
         <v>2</v>
       </c>
       <c r="X57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y57" t="n">
-        <v>1145</v>
+        <v>8191</v>
       </c>
       <c r="Z57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA57" t="n">
         <v>0</v>
@@ -6743,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="AC57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD57" t="n">
         <v>197</v>
@@ -6758,32 +6758,32 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2990769741838200317</t>
+          <t>2546667099737047291</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2990769741838200317</t>
+          <t>2546667099737047291</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>41.4010388, 2.1138847</t>
+          <t>41.4046028, 2.1881168</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>{"t5": 1103, "e5": 1102.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>41.4010388</v>
+        <v>41.4046028</v>
       </c>
       <c r="F58" t="n">
-        <v>2.1138847</v>
+        <v>2.1881168</v>
       </c>
       <c r="G58" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H58" t="n">
         <v>2</v>
@@ -6792,10 +6792,10 @@
         <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>1103</v>
+        <v>8191</v>
       </c>
       <c r="L58" t="n">
         <v>2</v>
@@ -6807,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P58" t="n">
         <v>197</v>
@@ -6820,16 +6820,16 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>2990689477556481533</t>
+          <t>2546806746253377787</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>2990689477556481533</t>
+          <t>2546806746253377787</t>
         </is>
       </c>
       <c r="U58" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="V58" t="n">
         <v>2</v>
@@ -6838,13 +6838,13 @@
         <v>2</v>
       </c>
       <c r="X58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y58" t="n">
-        <v>1102</v>
+        <v>8191</v>
       </c>
       <c r="Z58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA58" t="n">
         <v>0</v>
@@ -6853,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="AC58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD58" t="n">
         <v>197</v>
@@ -6868,32 +6868,32 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3015046958577396992</t>
+          <t>2546878205986357499</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3015046958577396992</t>
+          <t>2546878205986357499</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>41.4003096, 2.1135102</t>
+          <t>41.4046027, 2.1881165</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>{"t5": 1017, "e5": 1016.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>41.4003096</v>
+        <v>41.4046027</v>
       </c>
       <c r="F59" t="n">
-        <v>2.1135102</v>
+        <v>2.1881165</v>
       </c>
       <c r="G59" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H59" t="n">
         <v>2</v>
@@ -6902,10 +6902,10 @@
         <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>1017</v>
+        <v>8191</v>
       </c>
       <c r="L59" t="n">
         <v>2</v>
@@ -6917,7 +6917,7 @@
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P59" t="n">
         <v>197</v>
@@ -6930,16 +6930,16 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>3015037062955969792</t>
+          <t>2546877114997555451</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>3015037062955969792</t>
+          <t>2546877114997555451</t>
         </is>
       </c>
       <c r="U59" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="V59" t="n">
         <v>2</v>
@@ -6948,13 +6948,13 @@
         <v>2</v>
       </c>
       <c r="X59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y59" t="n">
-        <v>1016</v>
+        <v>8191</v>
       </c>
       <c r="Z59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA59" t="n">
         <v>0</v>
@@ -6963,7 +6963,7 @@
         <v>0</v>
       </c>
       <c r="AC59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD59" t="n">
         <v>197</v>
@@ -6978,32 +6978,32 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3039253806555639293</t>
+          <t>2546948574713757947</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3039253806555639293</t>
+          <t>2546948574713757947</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>41.3997424, 2.1133691</t>
+          <t>41.4046026, 2.1881165</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{"t5": 931, "e5": 930.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>41.3997424</v>
+        <v>41.4046026</v>
       </c>
       <c r="F60" t="n">
-        <v>2.1133691</v>
+        <v>2.1881165</v>
       </c>
       <c r="G60" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H60" t="n">
         <v>2</v>
@@ -7012,10 +7012,10 @@
         <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>931</v>
+        <v>8191</v>
       </c>
       <c r="L60" t="n">
         <v>2</v>
@@ -7027,7 +7027,7 @@
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P60" t="n">
         <v>197</v>
@@ -7040,16 +7040,16 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>3039243910950989309</t>
+          <t>2546947483741733115</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>3039243910950989309</t>
+          <t>2546947483741733115</t>
         </is>
       </c>
       <c r="U60" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="V60" t="n">
         <v>2</v>
@@ -7058,13 +7058,13 @@
         <v>2</v>
       </c>
       <c r="X60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y60" t="n">
-        <v>930</v>
+        <v>8191</v>
       </c>
       <c r="Z60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA60" t="n">
         <v>0</v>
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="AC60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD60" t="n">
         <v>197</v>
@@ -7088,32 +7088,32 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3045516624904891904</t>
+          <t>2547018943474712827</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3045516624904891904</t>
+          <t>2547018943474712827</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>41.399542000000004, 2.1133386</t>
+          <t>41.4045974, 2.188109</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>{"t5": 909, "e5": 908.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>41.399542</v>
+        <v>41.4045974</v>
       </c>
       <c r="F61" t="n">
-        <v>2.1133386</v>
+        <v>2.188109</v>
       </c>
       <c r="G61" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H61" t="n">
         <v>2</v>
@@ -7122,10 +7122,10 @@
         <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>909</v>
+        <v>8191</v>
       </c>
       <c r="L61" t="n">
         <v>2</v>
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P61" t="n">
         <v>197</v>
@@ -7150,16 +7150,16 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>3045506729283464704</t>
+          <t>2547017852485910779</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>3045506729283464704</t>
+          <t>2547017852485910779</t>
         </is>
       </c>
       <c r="U61" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="V61" t="n">
         <v>2</v>
@@ -7168,13 +7168,13 @@
         <v>2</v>
       </c>
       <c r="X61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y61" t="n">
-        <v>908</v>
+        <v>8191</v>
       </c>
       <c r="Z61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA61" t="n">
         <v>0</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="AC61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD61" t="n">
         <v>197</v>
@@ -7198,32 +7198,32 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2763421523518736125</t>
+          <t>2547370787195604731</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2763421523518736125</t>
+          <t>2547370787195604731</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>41.4033589, 2.0179022</t>
+          <t>41.404569, 2.1880676</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{"t5": 214, "e5": 215.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>41.4033589</v>
+        <v>41.404569</v>
       </c>
       <c r="F62" t="n">
-        <v>2.0179022</v>
+        <v>2.1880676</v>
       </c>
       <c r="G62" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H62" t="n">
         <v>2</v>
@@ -7232,10 +7232,10 @@
         <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>214</v>
+        <v>8191</v>
       </c>
       <c r="L62" t="n">
         <v>2</v>
@@ -7247,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P62" t="n">
         <v>197</v>
@@ -7260,16 +7260,16 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>2762989415449020157</t>
+          <t>2547369696206802683</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>2762989415449020157</t>
+          <t>2547369696206802683</t>
         </is>
       </c>
       <c r="U62" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V62" t="n">
         <v>2</v>
@@ -7278,13 +7278,13 @@
         <v>2</v>
       </c>
       <c r="X62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y62" t="n">
-        <v>215</v>
+        <v>8191</v>
       </c>
       <c r="Z62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA62" t="n">
         <v>0</v>
@@ -7293,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="AC62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD62" t="n">
         <v>197</v>
@@ -7308,32 +7308,32 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3244749231268877821</t>
+          <t>2552578074281531403</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3244749231268877821</t>
+          <t>2552578074281531403</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>41.279611, 1.5655904999999999</t>
+          <t>41.4044777, 2.1879379</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>{"t6": 1, "e6": 2.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>41.279611</v>
+        <v>41.4044777</v>
       </c>
       <c r="F63" t="n">
-        <v>1.5655905</v>
+        <v>2.1879379</v>
       </c>
       <c r="G63" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H63" t="n">
         <v>2</v>
@@ -7348,7 +7348,7 @@
         <v>8191</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -7357,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P63" t="n">
         <v>197</v>
@@ -7370,16 +7370,16 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>3244598598142318077</t>
+          <t>2552576983275952139</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>3244598598142318077</t>
+          <t>2552576983275952139</t>
         </is>
       </c>
       <c r="U63" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="V63" t="n">
         <v>2</v>
@@ -7394,7 +7394,7 @@
         <v>8191</v>
       </c>
       <c r="Z63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA63" t="n">
         <v>0</v>
@@ -7403,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="AC63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD63" t="n">
         <v>197</v>
@@ -7418,29 +7418,29 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2313090148119636980</t>
+          <t>2552648443008930586</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2313090148119636980</t>
+          <t>2552648443008930586</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>41.298829, 1.9975220999999999</t>
+          <t>41.4044526, 2.1879045</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{"t1": 6, "e1": 10.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>41.298829</v>
+        <v>41.4044526</v>
       </c>
       <c r="F64" t="n">
-        <v>1.9975221</v>
+        <v>2.1879045</v>
       </c>
       <c r="G64" t="n">
         <v>6</v>
@@ -7467,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P64" t="n">
         <v>197</v>
@@ -7480,12 +7480,12 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>2313014281783766004</t>
+          <t>2552647352020128538</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>2313014281783766004</t>
+          <t>2552647352020128538</t>
         </is>
       </c>
       <c r="U64" t="n">
@@ -7504,7 +7504,7 @@
         <v>8191</v>
       </c>
       <c r="Z64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA64" t="n">
         <v>0</v>
@@ -7513,7 +7513,7 @@
         <v>0</v>
       </c>
       <c r="AC64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD64" t="n">
         <v>197</v>
@@ -7528,29 +7528,29 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2318015960194247680</t>
+          <t>2553563236686387456</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2318015960194247680</t>
+          <t>2553563236686387456</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>41.2989738, 1.9976178</t>
+          <t>41.4044277, 2.1878712</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{"t1": 6, "e1": 10.0}</t>
+          <t>{"t1": 6, "e1": 10.0, "t6": 2, "e6": 1.0}</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>41.2989738</v>
+        <v>41.4044277</v>
       </c>
       <c r="F65" t="n">
-        <v>1.9976178</v>
+        <v>2.1878712</v>
       </c>
       <c r="G65" t="n">
         <v>6</v>
@@ -7577,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P65" t="n">
         <v>197</v>
@@ -7590,12 +7590,12 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>2318221568868641792</t>
+          <t>2553562145697585408</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>2318221568868641792</t>
+          <t>2553562145697585408</t>
         </is>
       </c>
       <c r="U65" t="n">
@@ -7614,7 +7614,7 @@
         <v>8191</v>
       </c>
       <c r="Z65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA65" t="n">
         <v>0</v>
@@ -7623,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="AC65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD65" t="n">
         <v>197</v>
@@ -7638,32 +7638,32 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2320267759990105862</t>
+          <t>2315053875888939771</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2320267759990105862</t>
+          <t>2315053875888939771</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>41.299107, 1.9977131</t>
+          <t>41.365354100000005, 2.1353198</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>{"t1": 6, "e1": 10.0}</t>
+          <t>{"t5": 1649, "e5": 1650.0}</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>41.299107</v>
+        <v>41.3653541</v>
       </c>
       <c r="F66" t="n">
-        <v>1.9977131</v>
+        <v>2.1353198</v>
       </c>
       <c r="G66" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H66" t="n">
         <v>2</v>
@@ -7672,13 +7672,13 @@
         <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
-        <v>8191</v>
+        <v>1649</v>
       </c>
       <c r="L66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -7687,7 +7687,7 @@
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P66" t="n">
         <v>197</v>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>2320332631176144646</t>
+          <t>2314868066913116923</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>2320332631176144646</t>
+          <t>2314868066913116923</t>
         </is>
       </c>
       <c r="U66" t="n">
@@ -7718,13 +7718,13 @@
         <v>2</v>
       </c>
       <c r="X66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y66" t="n">
-        <v>8191</v>
+        <v>1650</v>
       </c>
       <c r="Z66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA66" t="n">
         <v>0</v>
@@ -7733,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="AC66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD66" t="n">
         <v>197</v>
@@ -7748,32 +7748,32 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2322589928547968776</t>
+          <t>2318713050618686717</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2322589928547968776</t>
+          <t>2318713050618686717</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>41.299171099999995, 1.9977558</t>
+          <t>41.3654623, 2.1352401000000003</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{"t1": 6, "e1": 10.0}</t>
+          <t>{"t5": 1636, "e5": 1637.0}</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>41.2991711</v>
+        <v>41.3654623</v>
       </c>
       <c r="F67" t="n">
-        <v>1.9977558</v>
+        <v>2.1352401</v>
       </c>
       <c r="G67" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H67" t="n">
         <v>2</v>
@@ -7782,13 +7782,13 @@
         <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K67" t="n">
-        <v>8191</v>
+        <v>1636</v>
       </c>
       <c r="L67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
@@ -7797,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P67" t="n">
         <v>197</v>
@@ -7810,12 +7810,12 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>2322654799734007560</t>
+          <t>2318527241609309437</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>2322654799734007560</t>
+          <t>2318527241609309437</t>
         </is>
       </c>
       <c r="U67" t="n">
@@ -7828,13 +7828,13 @@
         <v>2</v>
       </c>
       <c r="X67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y67" t="n">
-        <v>8191</v>
+        <v>1637</v>
       </c>
       <c r="Z67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA67" t="n">
         <v>0</v>
@@ -7843,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="AC67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD67" t="n">
         <v>197</v>
@@ -7858,32 +7858,32 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2329697171726690048</t>
+          <t>2334546018024060668</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2329697171726690048</t>
+          <t>2334546018024060668</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>41.2992986, 1.9978570999999998</t>
+          <t>41.3658467, 2.1349611</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{"t1": 6, "e1": 10.0}</t>
+          <t>{"t5": 1580, "e5": 1581.0}</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>41.2992986</v>
+        <v>41.3658467</v>
       </c>
       <c r="F68" t="n">
-        <v>1.9978571</v>
+        <v>2.1349611</v>
       </c>
       <c r="G68" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H68" t="n">
         <v>2</v>
@@ -7892,10 +7892,10 @@
         <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K68" t="n">
-        <v>8191</v>
+        <v>1580</v>
       </c>
       <c r="L68" t="n">
         <v>2</v>
@@ -7907,7 +7907,7 @@
         <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P68" t="n">
         <v>197</v>
@@ -7920,16 +7920,16 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>2329762042895951616</t>
+          <t>2334289840304060156</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>2329762042895951616</t>
+          <t>2334289840304060156</t>
         </is>
       </c>
       <c r="U68" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V68" t="n">
         <v>2</v>
@@ -7938,10 +7938,10 @@
         <v>2</v>
       </c>
       <c r="X68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y68" t="n">
-        <v>8191</v>
+        <v>1581</v>
       </c>
       <c r="Z68" t="n">
         <v>2</v>
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="AC68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD68" t="n">
         <v>197</v>
@@ -7968,32 +7968,32 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2347218989010151421</t>
+          <t>2340597729990834944</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2347218989010151421</t>
+          <t>2340597729990834944</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>41.2997775, 1.9983859</t>
+          <t>41.3660219, 2.1348338</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>{"t1": 6, "e1": 10.0}</t>
+          <t>{"t5": 1558, "e5": 1559.0}</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>41.2997775</v>
+        <v>41.3660219</v>
       </c>
       <c r="F69" t="n">
-        <v>1.9983859</v>
+        <v>2.1348338</v>
       </c>
       <c r="G69" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H69" t="n">
         <v>2</v>
@@ -8002,10 +8002,10 @@
         <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K69" t="n">
-        <v>8191</v>
+        <v>1558</v>
       </c>
       <c r="L69" t="n">
         <v>2</v>
@@ -8017,7 +8017,7 @@
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P69" t="n">
         <v>197</v>
@@ -8030,16 +8030,16 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>2347002385219479549</t>
+          <t>2340623027281099520</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>2347002385219479549</t>
+          <t>2340623027281099520</t>
         </is>
       </c>
       <c r="U69" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V69" t="n">
         <v>2</v>
@@ -8048,10 +8048,10 @@
         <v>2</v>
       </c>
       <c r="X69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y69" t="n">
-        <v>8191</v>
+        <v>1559</v>
       </c>
       <c r="Z69" t="n">
         <v>2</v>
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="AC69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD69" t="n">
         <v>197</v>
@@ -8078,32 +8078,32 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2351230007428278272</t>
+          <t>2347564235680153851</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2351230007428278272</t>
+          <t>2347564235680153851</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>41.299880699999996, 1.9985035</t>
+          <t>41.3662148, 2.1346998</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>{"t1": 6, "e1": 10.0}</t>
+          <t>{"t5": 1533, "e5": 1534.0}</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>41.2998807</v>
+        <v>41.3662148</v>
       </c>
       <c r="F70" t="n">
-        <v>1.9985035</v>
+        <v>2.1346998</v>
       </c>
       <c r="G70" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H70" t="n">
         <v>2</v>
@@ -8112,10 +8112,10 @@
         <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K70" t="n">
-        <v>8191</v>
+        <v>1533</v>
       </c>
       <c r="L70" t="n">
         <v>2</v>
@@ -8127,7 +8127,7 @@
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P70" t="n">
         <v>197</v>
@@ -8140,16 +8140,16 @@
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>2351294878614317056</t>
+          <t>2347730270441996539</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>2351294878614317056</t>
+          <t>2347730270441996539</t>
         </is>
       </c>
       <c r="U70" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V70" t="n">
         <v>2</v>
@@ -8158,10 +8158,10 @@
         <v>2</v>
       </c>
       <c r="X70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y70" t="n">
-        <v>8191</v>
+        <v>1534</v>
       </c>
       <c r="Z70" t="n">
         <v>2</v>
@@ -8173,7 +8173,7 @@
         <v>0</v>
       </c>
       <c r="AC70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD70" t="n">
         <v>197</v>
@@ -8188,32 +8188,32 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2357915038125155072</t>
+          <t>2351082672889037056</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2357915038125155072</t>
+          <t>2351082672889037056</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>41.3000364, 1.998683</t>
+          <t>41.3664123, 2.1345603</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>{"t1": 6, "e1": 10.0}</t>
+          <t>{"t5": 1521, "e5": 1522.0}</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>41.3000364</v>
+        <v>41.3664123</v>
       </c>
       <c r="F71" t="n">
-        <v>1.998683</v>
+        <v>2.1345603</v>
       </c>
       <c r="G71" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H71" t="n">
         <v>2</v>
@@ -8222,10 +8222,10 @@
         <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K71" t="n">
-        <v>8191</v>
+        <v>1521</v>
       </c>
       <c r="L71" t="n">
         <v>2</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P71" t="n">
         <v>197</v>
@@ -8250,16 +8250,16 @@
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>2357909540567016192</t>
+          <t>2350967232674169088</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>2357909540567016192</t>
+          <t>2350967232674169088</t>
         </is>
       </c>
       <c r="U71" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V71" t="n">
         <v>2</v>
@@ -8268,10 +8268,10 @@
         <v>2</v>
       </c>
       <c r="X71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y71" t="n">
-        <v>8191</v>
+        <v>1522</v>
       </c>
       <c r="Z71" t="n">
         <v>2</v>
@@ -8283,7 +8283,7 @@
         <v>0</v>
       </c>
       <c r="AC71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD71" t="n">
         <v>197</v>
@@ -8298,32 +8298,32 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2363685275130938618</t>
+          <t>2357978809818447873</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2363685275130938618</t>
+          <t>2357978809818447873</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>41.300110600000004, 1.9988522</t>
+          <t>41.3666002, 2.1344269000000002</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{"t1": 6, "e1": 10.0}</t>
+          <t>{"t5": 1496, "e5": 1497.0}</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>41.3001106</v>
+        <v>41.3666002</v>
       </c>
       <c r="F72" t="n">
-        <v>1.9988522</v>
+        <v>2.1344269</v>
       </c>
       <c r="G72" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H72" t="n">
         <v>2</v>
@@ -8332,10 +8332,10 @@
         <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K72" t="n">
-        <v>8191</v>
+        <v>1496</v>
       </c>
       <c r="L72" t="n">
         <v>2</v>
@@ -8347,7 +8347,7 @@
         <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P72" t="n">
         <v>197</v>
@@ -8360,16 +8360,16 @@
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>2363679777572799738</t>
+          <t>2358144844580290561</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>2363679777572799738</t>
+          <t>2358144844580290561</t>
         </is>
       </c>
       <c r="U72" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V72" t="n">
         <v>2</v>
@@ -8378,10 +8378,10 @@
         <v>2</v>
       </c>
       <c r="X72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y72" t="n">
-        <v>8191</v>
+        <v>1497</v>
       </c>
       <c r="Z72" t="n">
         <v>2</v>
@@ -8393,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="AC72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD72" t="n">
         <v>197</v>
@@ -8402,336 +8402,6 @@
         <v>1</v>
       </c>
       <c r="AF72" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2364318593845313783</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2364318593845313783</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>41.3001135, 1.9988598000000002</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>{"t1": 6, "e1": 10.0}</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>41.3001135</v>
-      </c>
-      <c r="F73" t="n">
-        <v>1.9988598</v>
-      </c>
-      <c r="G73" t="n">
-        <v>6</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>2</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>8191</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0</v>
-      </c>
-      <c r="N73" t="n">
-        <v>0</v>
-      </c>
-      <c r="O73" t="n">
-        <v>3</v>
-      </c>
-      <c r="P73" t="n">
-        <v>197</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>1</v>
-      </c>
-      <c r="R73" t="n">
-        <v>1</v>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>2364313096287174903</t>
-        </is>
-      </c>
-      <c r="T73" t="inlineStr">
-        <is>
-          <t>2364313096287174903</t>
-        </is>
-      </c>
-      <c r="U73" t="n">
-        <v>10</v>
-      </c>
-      <c r="V73" t="n">
-        <v>2</v>
-      </c>
-      <c r="W73" t="n">
-        <v>2</v>
-      </c>
-      <c r="X73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>8191</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>197</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2364670437549425912</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2364670437549425912</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>41.3001183, 1.9988720000000002</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>{"t1": 6, "e1": 10.0}</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>41.3001183</v>
-      </c>
-      <c r="F74" t="n">
-        <v>1.998872</v>
-      </c>
-      <c r="G74" t="n">
-        <v>6</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>2</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="n">
-        <v>8191</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0</v>
-      </c>
-      <c r="O74" t="n">
-        <v>3</v>
-      </c>
-      <c r="P74" t="n">
-        <v>197</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>1</v>
-      </c>
-      <c r="R74" t="n">
-        <v>1</v>
-      </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>2364664940008064248</t>
-        </is>
-      </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>2364664940008064248</t>
-        </is>
-      </c>
-      <c r="U74" t="n">
-        <v>10</v>
-      </c>
-      <c r="V74" t="n">
-        <v>2</v>
-      </c>
-      <c r="W74" t="n">
-        <v>2</v>
-      </c>
-      <c r="X74" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>8191</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>197</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2364740806293605891</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2364740806293605891</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>41.3001302, 1.9989022</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>{"t1": 6, "e1": 10.0}</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>41.3001302</v>
-      </c>
-      <c r="F75" t="n">
-        <v>1.9989022</v>
-      </c>
-      <c r="G75" t="n">
-        <v>6</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>2</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="n">
-        <v>8191</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0</v>
-      </c>
-      <c r="N75" t="n">
-        <v>0</v>
-      </c>
-      <c r="O75" t="n">
-        <v>3</v>
-      </c>
-      <c r="P75" t="n">
-        <v>197</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>1</v>
-      </c>
-      <c r="R75" t="n">
-        <v>1</v>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>2364735308735467011</t>
-        </is>
-      </c>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>2364735308735467011</t>
-        </is>
-      </c>
-      <c r="U75" t="n">
-        <v>10</v>
-      </c>
-      <c r="V75" t="n">
-        <v>2</v>
-      </c>
-      <c r="W75" t="n">
-        <v>2</v>
-      </c>
-      <c r="X75" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>8191</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>197</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF75" t="n">
         <v>1</v>
       </c>
     </row>
